--- a/data/hotels_by_city/Houston/Houston_shard_462.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_462.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="456">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56427-d634878-Reviews-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-La-Quinta-Inn-Suites-Pasadena.h1601039.Hotel-Information?chkin=7%2F23%2F2018&amp;chkout=7%2F24%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531356871532&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=ea2870b3-47cd-4957-9cc3-f1d96106bc47&amp;mctc=9&amp;exp_dp=109.01&amp;exp_ts=1531356872125&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1242 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r588220467-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>56427</t>
+  </si>
+  <si>
+    <t>634878</t>
+  </si>
+  <si>
+    <t>588220467</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>Dead animal in pool !!!!!</t>
+  </si>
+  <si>
+    <t>everything about this management and the way they run this La Quinta was terrible and a embarrassment to the La Quinta chain  I would nor advice anyone to stay at this location . ever.. leaky plumbing faucets in bath, cold breakfast, a.c. in bedroom did not cool down in the roomMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>lq0825, General Manager at La Quinta Inn &amp; Suites Pasadena, responded to this reviewResponded June 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2018</t>
+  </si>
+  <si>
+    <t>everything about this management and the way they run this La Quinta was terrible and a embarrassment to the La Quinta chain  I would nor advice anyone to stay at this location . ever.. leaky plumbing faucets in bath, cold breakfast, a.c. in bedroom did not cool down in the roomMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r587049334-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>587049334</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Decent Stay</t>
+  </si>
+  <si>
+    <t>Was just bummed that pool was working.  Overall though you get more than what you pay for.  Breakfast is decent, could be better but can't complain.  This is my second stay at La Quinta and definitely staying here again!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r586527544-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>586527544</t>
+  </si>
+  <si>
+    <t>06/10/2018</t>
+  </si>
+  <si>
+    <t>Very uncomfortable beds</t>
+  </si>
+  <si>
+    <t>This hotel is extremely overpriced for the quality of the beds. I booked this hotel because it says he beds are pillow top, comfortable beds. This is far far from the truth. I have not had this problem with La Quinta hotels in the past and expected much better from this hotel. If you’re looking for a good nights sleep, this is not your hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>lq0825, General Manager at La Quinta Inn &amp; Suites Pasadena, responded to this reviewResponded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is extremely overpriced for the quality of the beds. I booked this hotel because it says he beds are pillow top, comfortable beds. This is far far from the truth. I have not had this problem with La Quinta hotels in the past and expected much better from this hotel. If you’re looking for a good nights sleep, this is not your hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r573878118-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>573878118</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>A/C policy to shutoff AC at night</t>
+  </si>
+  <si>
+    <t>I've been waking up hot at my last few stays at La Quinta and couldn't figure out why.  Found out they do not give you full control of the AC thermostat...and EVEN shut if off on you at night with NO control to turn it back on! It spoiled my sleep and didn't have a good day afterwards! I called the front desk and NO answer each time!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>lq0825, General Manager at La Quinta Inn &amp; Suites Pasadena, responded to this reviewResponded May 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2018</t>
+  </si>
+  <si>
+    <t>I've been waking up hot at my last few stays at La Quinta and couldn't figure out why.  Found out they do not give you full control of the AC thermostat...and EVEN shut if off on you at night with NO control to turn it back on! It spoiled my sleep and didn't have a good day afterwards! I called the front desk and NO answer each time!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r571885943-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>571885943</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediocre </t>
+  </si>
+  <si>
+    <t>Front desk staff was not overly friendly but nice when spoken to. Our room smelled shockingly bad. The hotel was booked so we were stuck. Even with the a/c running for hours, the smell still made our eyes water. My husband and I both only slept for 3 hours bc of the smell and being hot. The next day the front desk was apologetic and moved us. Our new room was 100% better (the a/c worked better too). Breakfast was disappointing. First morning they ran out of eggs and said it would be 20 minutes- it took at least that long. The second day was better, but the next two there was no meat (no bacon, no sausage). The eggs are horrible- perhaps powdered eggs mixed with water? I did notice people seemed to enjoy their waffles (we didn’t have one). Summary: The staff is not that professional but tried, our room was pretty clean, the shower wasn’t that hot, the a/c in new room worked great, mini fridge worked great, hotel starting to show wear and tear, and the rooms tend to be a little noisy. We traveled with a group and many complained of elevator noise or noise in the hallway. We didn’t experience that, but I could hear my husband getting ice down the hall from our room which surprised me. We were not that close to the elevator/vending area. Overall, I would stay here again if...Front desk staff was not overly friendly but nice when spoken to. Our room smelled shockingly bad. The hotel was booked so we were stuck. Even with the a/c running for hours, the smell still made our eyes water. My husband and I both only slept for 3 hours bc of the smell and being hot. The next day the front desk was apologetic and moved us. Our new room was 100% better (the a/c worked better too). Breakfast was disappointing. First morning they ran out of eggs and said it would be 20 minutes- it took at least that long. The second day was better, but the next two there was no meat (no bacon, no sausage). The eggs are horrible- perhaps powdered eggs mixed with water? I did notice people seemed to enjoy their waffles (we didn’t have one). Summary: The staff is not that professional but tried, our room was pretty clean, the shower wasn’t that hot, the a/c in new room worked great, mini fridge worked great, hotel starting to show wear and tear, and the rooms tend to be a little noisy. We traveled with a group and many complained of elevator noise or noise in the hallway. We didn’t experience that, but I could hear my husband getting ice down the hall from our room which surprised me. We were not that close to the elevator/vending area. Overall, I would stay here again if surrounding hotels were booked, otherwise, I would try my luck elsewhere. MoreShow less</t>
+  </si>
+  <si>
+    <t>Front desk staff was not overly friendly but nice when spoken to. Our room smelled shockingly bad. The hotel was booked so we were stuck. Even with the a/c running for hours, the smell still made our eyes water. My husband and I both only slept for 3 hours bc of the smell and being hot. The next day the front desk was apologetic and moved us. Our new room was 100% better (the a/c worked better too). Breakfast was disappointing. First morning they ran out of eggs and said it would be 20 minutes- it took at least that long. The second day was better, but the next two there was no meat (no bacon, no sausage). The eggs are horrible- perhaps powdered eggs mixed with water? I did notice people seemed to enjoy their waffles (we didn’t have one). Summary: The staff is not that professional but tried, our room was pretty clean, the shower wasn’t that hot, the a/c in new room worked great, mini fridge worked great, hotel starting to show wear and tear, and the rooms tend to be a little noisy. We traveled with a group and many complained of elevator noise or noise in the hallway. We didn’t experience that, but I could hear my husband getting ice down the hall from our room which surprised me. We were not that close to the elevator/vending area. Overall, I would stay here again if...Front desk staff was not overly friendly but nice when spoken to. Our room smelled shockingly bad. The hotel was booked so we were stuck. Even with the a/c running for hours, the smell still made our eyes water. My husband and I both only slept for 3 hours bc of the smell and being hot. The next day the front desk was apologetic and moved us. Our new room was 100% better (the a/c worked better too). Breakfast was disappointing. First morning they ran out of eggs and said it would be 20 minutes- it took at least that long. The second day was better, but the next two there was no meat (no bacon, no sausage). The eggs are horrible- perhaps powdered eggs mixed with water? I did notice people seemed to enjoy their waffles (we didn’t have one). Summary: The staff is not that professional but tried, our room was pretty clean, the shower wasn’t that hot, the a/c in new room worked great, mini fridge worked great, hotel starting to show wear and tear, and the rooms tend to be a little noisy. We traveled with a group and many complained of elevator noise or noise in the hallway. We didn’t experience that, but I could hear my husband getting ice down the hall from our room which surprised me. We were not that close to the elevator/vending area. Overall, I would stay here again if surrounding hotels were booked, otherwise, I would try my luck elsewhere. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r553753220-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>553753220</t>
+  </si>
+  <si>
+    <t>01/14/2018</t>
+  </si>
+  <si>
+    <t>Close...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everything was wonderful. Friendly front desk crew and cleaning team and good b fast. I'm only giving 4 stars due to the price. I made quick reservations due to a death in the family and did not have time to price compare. Turns out this establishment was a tad bit high for the area. </t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r520084131-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>520084131</t>
+  </si>
+  <si>
+    <t>08/31/2017</t>
+  </si>
+  <si>
+    <t>Excellent stay, very grateful for this location after flood</t>
+  </si>
+  <si>
+    <t>My family and I, including our 3 year old son were exposed in the flood and walked into the lobby of this hotel soaking wet. Shannon made sure we had everything we needed and we appreciated her excellent customer service skills. Jose tended to us during the stay as well and he was very caring, compassionate and informative. We are forever grateful for this crew and the service we received. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care  at La Quinta Inn &amp; Suites Pasadena, responded to this reviewResponded September 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2017</t>
+  </si>
+  <si>
+    <t>My family and I, including our 3 year old son were exposed in the flood and walked into the lobby of this hotel soaking wet. Shannon made sure we had everything we needed and we appreciated her excellent customer service skills. Jose tended to us during the stay as well and he was very caring, compassionate and informative. We are forever grateful for this crew and the service we received. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r514119002-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>514119002</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t>Extremely Firm Beds/Pillows and Short Toilets</t>
+  </si>
+  <si>
+    <t>Staff was great, hotel was very clean but the beds/pillows were extremely firm and the toilet was very short.  An upgrade in mattress and pillow quality would be great and a plumbing re-fit with adult height toilets would make the experience excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>lq0825, General Manager at La Quinta Inn &amp; Suites Pasadena, responded to this reviewResponded December 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2017</t>
+  </si>
+  <si>
+    <t>Staff was great, hotel was very clean but the beds/pillows were extremely firm and the toilet was very short.  An upgrade in mattress and pillow quality would be great and a plumbing re-fit with adult height toilets would make the experience excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r508450788-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>508450788</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r491658596-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>491658596</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>I went down to this area to attend my son's wedding.I usually stay at La Quinta because of their pet policy. A friend recommended this one. The room was large and not too expensive. I was well pleased with everything thereMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>lq0825, General Manager at La Quinta Inn &amp; Suites Pasadena, responded to this reviewResponded June 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2017</t>
+  </si>
+  <si>
+    <t>I went down to this area to attend my son's wedding.I usually stay at La Quinta because of their pet policy. A friend recommended this one. The room was large and not too expensive. I was well pleased with everything thereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r477620646-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>477620646</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>LaQuinta</t>
+  </si>
+  <si>
+    <t>We have found that you can always count on the quality at LaQuinta, in the cleanliness, good mattress on the beds, plenty of parking and good service. Always along the highways that we travel and the quality  seems to be the same at most of our stays..</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r472560477-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>472560477</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>Business &amp; Pleasure</t>
+  </si>
+  <si>
+    <t>I had the pleasure of staying a the La Quinta in Pasadena off of belt way and Vista the staff at this location are very friendly and knowledgeable of the area.  If you need help locating a please they are always very willing to help you.  They great you with a smile and house keeping is very willing to help in any way they can. I would recommend this location with our reservation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r425541972-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>425541972</t>
+  </si>
+  <si>
+    <t>09/29/2016</t>
+  </si>
+  <si>
+    <t>Mildew on ceiling of room</t>
+  </si>
+  <si>
+    <t>love this hotel.  stay here whenever in Pasadena, Tx.  Have a great staff and we feel safe with lighting and location.  Hotel is clean inside and outside.  Slight amount of mildew on ceiling of room.  spots look like mildew, could be something spilled.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r415998583-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>415998583</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>Great labor Day weekend stay</t>
+  </si>
+  <si>
+    <t>This La Quinta was top notch!! We have stayed at many La Quinta's through out the South and this was very nice! When you entered the area was bright and clean. The staff was courteous and friendly. Our room was nice and very clean! We only stay at La Quinta because not only they have nice rooms but the honor Military Members!!! We would definitely stay at this La Quinta again when we are in Houston again!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r398683938-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>398683938</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Excellant service, clean rooms &amp; facility.</t>
+  </si>
+  <si>
+    <t>They definitely earned 5 stars from us.  Personnel were professional,  courteous and friendly.  The room was clean as well as the facility.  I also felt safe.  I will come back.  A big plus - they are pet friendly.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r383459437-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>383459437</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>Go somewhere else</t>
+  </si>
+  <si>
+    <t>I've spent time at plenty of the LaQuinta locations and this one is close to the bottom of the pack.  Pillowtop beds???  NOT.  Breakfast???  Least choices I've ever seen at an LQ.  Walls are thin and the music from the parking lot late at night is loud. Customer service was dependent on the person--one not so good and one very good.  The facility just doesn't seem to get the attention it needs, either in maintenance or housekeeping.Go somewhere else...</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r382066287-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>382066287</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>Nice Place to do business</t>
+  </si>
+  <si>
+    <t>Lauren and front desk staff were excellant. I was traveling in to do quick Oil &amp; Gas meetings. I was not a prefered member but Lauren helped my sign up and my accomidations were awesome. See you all next time.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r370105520-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>370105520</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>The Worst</t>
+  </si>
+  <si>
+    <t>Honestly I don't think I have stayed in a worst hotel for the money spent. Wasn't expecting anything spectacular for the price we paid, however, the hotel was dirty, the pool disgusting, the overhead lighting in the rooms was terrible and the staff was barely adequate. Add in the fact that the hotel rooms felt like a college dorm which was hastily repainted and fixed up. You could see the terrible paint job, the bad fixes, and the room had a feel of just dirt.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>lq0825, General Manager at La Quinta Inn &amp; Suites Pasadena, responded to this reviewResponded May 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2016</t>
+  </si>
+  <si>
+    <t>Honestly I don't think I have stayed in a worst hotel for the money spent. Wasn't expecting anything spectacular for the price we paid, however, the hotel was dirty, the pool disgusting, the overhead lighting in the rooms was terrible and the staff was barely adequate. Add in the fact that the hotel rooms felt like a college dorm which was hastily repainted and fixed up. You could see the terrible paint job, the bad fixes, and the room had a feel of just dirt.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r364294951-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>364294951</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>Hotel stay</t>
+  </si>
+  <si>
+    <t>Staff was great hotel was clean and the breakfast was alright .I stayed at this hotel before and will stay at it some more .Lots of stores around for shopping if you  need anything. Water was  a little cold in the swimming pool.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r363206690-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>363206690</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>Pretty good over all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over all it was a good place to stay. Breakfast was good and warm! Our room was clean for the most part. I did notice some dirt and crumbs in the corner of the room by the door. A/C worked great! The pool was great also. It was about 30 minutes from the kemah Boardwalk. The front desk lady was very helpful and told us about the "city pass." I would stay here again! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r357636921-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>357636921</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>GREAT hotel with or without pets!</t>
+  </si>
+  <si>
+    <t>We had reserved a room with a La Quinta about 15 minutes away from this one (since we are traveling with our dog we always stay at la quintas) and when we arrived the hotel was old and packed with no parking for our truck and trailer. We were staying 3 nights,and i found this La Quinta quickly after arrival at the original.Asked the Manager if she could call this one and see if they had any open rooms at a good rate. They got us close to the same price with the same room even though all rooms were almost booked,and when we arrived they had put us in a room that overlooked the parking lot so we could keep an eye on our rig which was AWESOME! The hotel had been recently remodeled and was VERY nice.It was a very quiet and peaceful hotel. After a 25 hour trip from Florida, our dog loved being able to roam around the spacious room and roll around on the bed.10/10 would stay here again! Also close to food but staying out of the busyness.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>We had reserved a room with a La Quinta about 15 minutes away from this one (since we are traveling with our dog we always stay at la quintas) and when we arrived the hotel was old and packed with no parking for our truck and trailer. We were staying 3 nights,and i found this La Quinta quickly after arrival at the original.Asked the Manager if she could call this one and see if they had any open rooms at a good rate. They got us close to the same price with the same room even though all rooms were almost booked,and when we arrived they had put us in a room that overlooked the parking lot so we could keep an eye on our rig which was AWESOME! The hotel had been recently remodeled and was VERY nice.It was a very quiet and peaceful hotel. After a 25 hour trip from Florida, our dog loved being able to roam around the spacious room and roll around on the bed.10/10 would stay here again! Also close to food but staying out of the busyness.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r343239049-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>343239049</t>
+  </si>
+  <si>
+    <t>01/27/2016</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>Well located hotel, rooms were very comfortable and it was great having the microwave and fridge. Their ac unit in the room is a bit loud but heats/cool rather fast, Seems a bit dated but is extremely clean! We stayed for a week and every day we had different options for breakfast, fruit and yogurt seem to dwindle and were not replenished, but still, food was good.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r334434348-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>334434348</t>
+  </si>
+  <si>
+    <t>12/21/2015</t>
+  </si>
+  <si>
+    <t>Condition of room</t>
+  </si>
+  <si>
+    <t>This was one of the best La Quinta hotels that I have ever stayed at.  Everything was as expected or better.  The staff were excellent. It was close to the freeway with easy access to the freeway. There were plenty of places near by to purchase food and places to eat at. It was not far to the mall and shopping centers.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Reagan H, Manager at La Quinta Inn &amp; Suites Pasadena, responded to this reviewResponded January 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2016</t>
+  </si>
+  <si>
+    <t>This was one of the best La Quinta hotels that I have ever stayed at.  Everything was as expected or better.  The staff were excellent. It was close to the freeway with easy access to the freeway. There were plenty of places near by to purchase food and places to eat at. It was not far to the mall and shopping centers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r329302831-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>329302831</t>
+  </si>
+  <si>
+    <t>11/25/2015</t>
+  </si>
+  <si>
+    <t>Check room before staying</t>
+  </si>
+  <si>
+    <t>I stayed in room 114 there was paint splatter all over the bathroom. There was hair in the tub and toilet ran continuously thru the night. The cabinet under the bathroom sink was broken and pulled out from under sink, the baseboards under the cabinet were broken and laying on the floor. The TV's kept losing signal off and on through out the stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>I stayed in room 114 there was paint splatter all over the bathroom. There was hair in the tub and toilet ran continuously thru the night. The cabinet under the bathroom sink was broken and pulled out from under sink, the baseboards under the cabinet were broken and laying on the floor. The TV's kept losing signal off and on through out the stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r316756531-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>316756531</t>
+  </si>
+  <si>
+    <t>10/06/2015</t>
+  </si>
+  <si>
+    <t>TripAdvisor</t>
+  </si>
+  <si>
+    <t>Excellent professional service.  I have used this same location for the past 5 years and every time I receive the best of friendly, customer service.  I am very pleased with all the staff assigned to the hotel in Pasadena.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r303579819-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>303579819</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>Surprised</t>
+  </si>
+  <si>
+    <t>When I arrived a sign was posted the attendant was servicing another customer. I and another customer waited over 25 min until we were checked in.  The room smelled of animal urine, the AC on 60 did not cool the room, the pillows and bed were very hard and not comfortable. The shower curtian did not appear clean so I wiped it down. The hinges on the bathroom door were rusted and rust flaking off I have inquired about bonus points added for this stay with no reply.  The "look" of this hotel is very impressive but that is about it.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>lq0825, Manager at La Quinta Inn &amp; Suites Pasadena, responded to this reviewResponded September 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2015</t>
+  </si>
+  <si>
+    <t>When I arrived a sign was posted the attendant was servicing another customer. I and another customer waited over 25 min until we were checked in.  The room smelled of animal urine, the AC on 60 did not cool the room, the pillows and bed were very hard and not comfortable. The shower curtian did not appear clean so I wiped it down. The hinges on the bathroom door were rusted and rust flaking off I have inquired about bonus points added for this stay with no reply.  The "look" of this hotel is very impressive but that is about it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r302353625-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>302353625</t>
+  </si>
+  <si>
+    <t>08/22/2015</t>
+  </si>
+  <si>
+    <t>Stan Bush</t>
+  </si>
+  <si>
+    <t>This hotel was a perfect location for proximity of our meeting facility and the company headquarters.  Very good access in and out for traveling to and from meeting facility and company office.  Also provided all extras for relaxation, fitness, and business purposes.  Looked to be a great fit for a family vacation, also.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r291214474-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>291214474</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Jenna is extremely rude I see this hotel losing customers quick</t>
+  </si>
+  <si>
+    <t>Jenna at the front desk is extremely rude I called for availability and right off the back the rudeness started how can la Quinta employ people like her Don't u guys do interviews or check on your employees. Extremely disappointed I will take my business elsewhereMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>lq0825, General Manager at La Quinta Inn &amp; Suites Pasadena, responded to this reviewResponded September 15, 2015</t>
+  </si>
+  <si>
+    <t>Jenna at the front desk is extremely rude I called for availability and right off the back the rudeness started how can la Quinta employ people like her Don't u guys do interviews or check on your employees. Extremely disappointed I will take my business elsewhereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r277353550-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>277353550</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>Horrible Hotel in Pasenda</t>
+  </si>
+  <si>
+    <t>On Friday May 22, 2015 somewhere between approximately 3:30-4:00pm I went in to the Pasadena LA Quinta location located at 3490 East Sam Houston Pkwy South, Pasadena, Texas 77505 to check in. Jenna was working the front desk at the time, and was on the phone with a customer. I heard her giving details on the rooms, fitness and business center etc and could tell it was going to take a few minutes. Since I’ve been having problems with a very painful bad ankle, I decided to sit down and wait until she was finished. When she finished I walked up to the counter, and she thanked me for my patience and we proceeded with the check in. She had me sign 2 documents. First was the document where you initial for the room charge, initial the no smoking policy, and then sign the bottom. The second was a basic old style computer printout that contained some of my credit card info etc. She said that one was authorizing them to charge it to that card. When we were done she handed me my room key and told me breakfast was from 6-9. I asked if there was anything else and she said no, so I went back out to my car where my husband was waiting with the dogs. When I got back to the car I got in and he got in to get a cart to load...On Friday May 22, 2015 somewhere between approximately 3:30-4:00pm I went in to the Pasadena LA Quinta location located at 3490 East Sam Houston Pkwy South, Pasadena, Texas 77505 to check in. Jenna was working the front desk at the time, and was on the phone with a customer. I heard her giving details on the rooms, fitness and business center etc and could tell it was going to take a few minutes. Since I’ve been having problems with a very painful bad ankle, I decided to sit down and wait until she was finished. When she finished I walked up to the counter, and she thanked me for my patience and we proceeded with the check in. She had me sign 2 documents. First was the document where you initial for the room charge, initial the no smoking policy, and then sign the bottom. The second was a basic old style computer printout that contained some of my credit card info etc. She said that one was authorizing them to charge it to that card. When we were done she handed me my room key and told me breakfast was from 6-9. I asked if there was anything else and she said no, so I went back out to my car where my husband was waiting with the dogs. When I got back to the car I got in and he got in to get a cart to load up our stuff. Since it was close to 90deg, one of us stayed in the car with the AC running until the room was ready to take the dogs in so they wouldn’t overheat. He loaded the cart and went in to ready the room. When he came back in he said “you can go in and set up the dogs tents, it’s going to be a little while until we go in, but I think it’s ok if you get that set up a while” I said “why? What’s wrong?” He said “when I went to put stuff in the fridge the door fell off, I went up front to let the lady know and she said we would have to wait until she could get someone to repair it” I said “so we can’t go in and wait?” he said “I guess not, she made it sound like maintenance would need to be able to get in there and we would have to wait out here until they’re done” I said “ok”. I went inside and set up the dog tents and finished taking the stuff off the cart and put it on the chair just inside the door. I pushed the cart back out front by the main doors where they’re stored. Jenna was on the phone discussing reservations with another customer, so I didn’t bother to stop since she was busy. Besides, I had assumed she had contacted maintenance and we were waiting on them. I went back out and Ted and I sat in the car for a spell. We started to talk about that she may not know we were outside, and decided maybe we should check in. I wasn’t sure at this point how long it had been, but it seemed it had been a while. When I went back in, Jenna was again on the phone, but she finished quickly. I don’t recall sitting during this time. When she got off she asked “can I help you?”  I said “I’m just checking the status of our room?” She seemed confused for a second so I said “We were waiting for them to fix the fridge?” She said “oh that, I haven’t gotten around to that yet” I said “oh, ok. Well do you have an approximate time frame so we know what we’re going to do about dinner and such? We’re getting kind of hungry and..” She kind of cut me off and said “I haven’t found anyone to help me move it, can your husband move it for me?”  I said “I’m not really sure, he’s disabled and I think that’s probably beyond his limits, so I doubt it” She seemed to get upset at this point. She stuck her left arm out and grabbed her upper arm with her right hand and said “well I have these weak little lady arms, I don’t know what I’m supposed to do about it” She walked around the counter and said “you know I haven’t been sitting around doing nothing for the last hour, I’ve been working!” I said “ok, well we were just asking because we’re getting hungry since we haven’t eaten yet” She said “well I don’t know what I’m supposed to do about it” I said “ I thought maintenance was coming?” She said “they’ve already left for the day, so I guess I’ll just get a dolly and try to move it myself since neither of you will help me” I told her “ Well I have a really bad back and my husband is disabled, you have lawn guys out front working, maybe one of them can help you?” She looks out the door where one is standing and snaps “they’re with a different company! They don’t work for us! So no they can’t help, and since you won’t help either I’ll find a way to do it myself!” She starts down the hallway and I follow her. She starts to open a door that says “storage” on it. As she turns to open the door she sees me there and pulls it shut again and this time yells at me “I’m handling it!! You don’t have to follow me around!!!! You can go sit down somewhere and I’ll get to it!!” I said “well I thought you were going to go in to the room, and since some of our stuff is already in there I’d like to be present when people go in” She snaps “fine!”. She opens the door, but only partially. She grabs a hand truck/dolly from right inside the door without actually going inside and slams it out through the door. She walks down the hallway to a room that was across the hallway and a few doors down from ours and goes inside. (Later I was talking with my friends outside their room and the room they went in I believe is the same one she was attempting to pull the fridge from… It was Joan and Norm Williams and I believe they were in room 121, and I believe that was the room she entered. I didn’t know it was theirs at the time). When she comes out of the room quickly after, she’s clearly irritated and says “it’s too heavy for me to pick up, I don’t know what to tell you” Since she didn’t want us in the room without it being fixed I said “Well I kind of looked at it earlier. It has a little screw adjustment on the bottom, I tried to tighten it and see if the door would go on. But the top pin seemed to short. Maybe you can look at it and see if you can see if its missing a part or something?” she said “fine, I’ll look” We go inside and I show her where the adjustment is, she says “yea, I see that” then she wiggles the part that holds that piece up and down and says “this part is clearly broken, I can’t do anything about that.. I’ll just have to see if I can find you another room” I said “man, I would really hate to have to move all our stuff to another room after all this time..”  She said ‘well there’s nothing I can do about that!” She walked out of the room. I stood there for a minute unsure of what to do. She had already yelled at me in the hallway, so I wasn’t sure how to proceed. I thought for a minute before I left and decided that she had said she was going to look for another room, so I was supposed to follow her out front to get it. When I get out front she sees me and aggressively snaps “yes ma’am?!?!” I said “you said you were going to look for another room, so I thought you wanted me to follow you?” She moans, looks around and picks up a stack of papers that were combined with room keys. She takes one from the bottom of the stack, looks at it and Snaps “not that one!!”  Flips through 3 or 4 more and snaps “not them either!!!” and quickly flips the rest and slams the stack back in the basket and snaps “nope!! Not any of those!! I don’t know what to tell you!! Figure something out!!!!” so I say “ok, well can we stay in there if I can find a way to rig it back on temporarily?” she says “sure!! Do whatever you want!! cause I don’t know what to tell you!!!” I said “ok, but it’s ok for us to stay in there and we won’t get charged for it, right?” she says “yea, sure. Whatever..”  So I go back in and fiddle around with it and kind of wedge the door in place by pushing it back inside the compartment it was housed in. It held as long as you didn’t pull on it. I went out and told ted I rigged it up, so we were allowed to stay in the room. We unloaded the dogs and went into the room for a few minutes. Got the dogs settled in their crates and fed so they could rest while we were gone and we left to go have dinner at Applebee’s right around the corner. We went back to the room. It was after 7:30 at this point. I was tired and decided to walk the dogs so I could relax and before the storm hit. On one of my trips out (I walk the dogs individually) I ran into friends in the hallway. We talked for quite some time until we all agreed we needed to go take care of the dogs so we could relax. I took my dog out and went back to the room. I was barely in there and putting my dog up when I thought I heard the phone ringing in the bedroom area. Ted was in there so I called over “ted is the phone ringing?” I think he had fallen asleep as he hadn’t seemed to hear it and was a little disoriented at first” I heard him answer it and continued on with getting things ready to go to bed. I was in the living room area (it was a suite). At some point I hear him giving our address “*1* Sh*** G**** ln, A*K***, TX *****” and I say ‘what are you doing?” He doesn’t respond, but I hear him repeating our address and then giving my phone number. SO I say louder “ted, what’s going on?!?” He said “what credit card did you pay with?” I told him the last 4 digits not thinking he was going to say much and figuring they shouldn’t need more than that for verification. He says “was it a master card or visa?” I said “I don’t know it was (and I repeat the last 4) he says “yea, but they need to know if it’s a MasterCard or visa” I said “why do they need to know that??” he said “it’s the manager and he said that the computers crashed and they need to re-enter everyone’s info” I said “he? It’s a girl working?” He said “no, this is the general manager” I said “why would he be calling?” he said “I don’t know, maybe he came in because they were having problems” I asked “if we were going to get charged twice?” He said “he said no, since the computers crashed you weren’t charged, so you’ll only get charged once” I said “well they should still have the card info on file” He said “he told me all that info was deleted in the crash” (we had actually been through a situation like that at an LQ years ago where there was a problem and they locked our door out, when we went up front to tell them our key wasn’t working they said they had a problem when they tried to run our card overnight and needed to run our card again physically, so it seemed legit since its happened before). I told him “I don’t have it with me, my wallet is still in the car” I hear him change tone a bit and say “no, I’m really not comfortable giving you my credit card info over the phone, we’ll just come to the lobby” a pause and then he says “no, that’s ok, we’ll just come to the lobby” I asked ted to come with me. We walk out the back entrance and go to our car, I get my wallet and we walk up to the front doors.. At which point I see no ones in the lobby. I say to ted “if their computers crashed, why is no one here but us? No ones in there?  That seems odd” He replies “yea, that IS kind of strange” as soon as we walk through the doors, before we get to the counter he says to Jenna “are you having problems with your computer?”  She says “no, why?” he says “someone called my room saying your computer crashed…” She cut him off and said “that’s a scam” he said “huh?” she said you didn’t give him info right?” he said “no, why?” she said someone’s been calling several rooms every night and asking for credit card info” then she said “I’ll take down your info” he said “wait…why? What’s going on? You mean to tell me this person is calling rooms every night? Why aren’t you telling you’re customers?” she points to the elevated counter to a 3x4 sheet of paper with very fine print (that I never did get to read) and says “it’s right there” he said “that’s near impossible to see.. Why wouldn’t you put up a big sign or tell people??” she said “I do, I tell everyone at check in” I said “you didn’t tell me?” she said “yes I did, I tell everyone” I said “no you didn’t, or we wouldn’t have given him as much info as we did, nor would we have come down here with our credit card to pay again” Ted said “why not just put a big sign right here on the counter like this one?” She said it’s not La Quintas responsibility to notify you of anything!!” he said “well maybe not, but its good customer service to do so if you know there’s a scam going on” He said “can’t you shut down the calls at the switchboard or something?” she said “no, we have no way of doing that or tracing any of the calls to block them or anything, and besides you should be smart enough to not give out your info” The “smart enough” comment did it for me, and I said to ted “you know, she’s been rude and nasty ever since I told her you couldn’t help move that fridge” and he says “I know, you’re right” so he looks at her and says “this really has been a bad experience from the start, I think with everything that’s been going on, and with this credit card scam I’d like to talk to the manager” She said “If you’re so unhappy you’re free to go to another hotel” He said “no, I don’t want to go to another hotel, I’d like to speak to the manager. She said “no, you’re not talking to the manager and you can get your stuff and get out of my hotel” He said “all I want to do is speak to the manager, can I speak to the manager???” she said “you’re not talking to anyone! And if you don’t vacate the premises immediately I’m calling the police!!” He said “because I want to talk to the manager??” she said “I told you, you’re not talking to him!!!” I said “you’re going to call the police because we asked for a manager??” and she said “yes!! No get out!!!” I said to ted “don’t interact with her anymore, let’s go back to the room and call the LQ line and figure this out…”this was at 8:39pm, I had checked my watch to see what we were going to do. I think when I said that, this is what made her lock out my room as when I got back to go inside the room key wouldn’t work.. I tried turning it, holding it, moving it up and down etc… we were locked out.  We had been in and out of that room dozens of times and the keys worked fine. She locked us out. I called down to ted in a bit of a panic at this point “ted she locked us out!! The dogs are in there!! My car keys are in there!! Holy crap, she locked all our stuff in the room!!” I went back out front and said “you locked us out! All our stuff is in there! We need to get our stuff!!” She ignored me and was on her cell phone talking.. I said “who’s she talking to?!?” Ted said “I don’t know, I think she called the police” I said “oh my God, all this because we wanted to talk to a manger?!? Oh my God, my dogs are in the room!! And you locked us out!!” Ted said to me “come on, the police are on their way… we’ll wait for them out front”  We went out front and I started to put my wallet back in my car, but decided to keep it in case the police wanted my ID…. I locked my car back up and walked back to the front just as the police pulled up. They walked up and shook Teds hand and asked if he was the one that called them. He said “no, the lady inside did” We recount our story. They say “ok, we’re going to go in and talk to her, but we want you to know that state law states that she can have you removed and she doesn’t even have to have a reason to do so.” I said “even though its only because we asked for a manger or the fact that it goes back to her being mad that my husband is disabled and couldn’t move a fridge when she asked him to” They said “unfortunately yes, she can say you have to leave and never tell us why. I think it’s horrible what’s she’s doing to you, and I don’t like it either… and I’m very sorry… but yes, the law says if she says you have to leave then you have to leave… talk to the manager about what happened.” I said “we can’t, she won’t give us his info and says we’re not allowed to talk to him” he said “let me see what I can find out for you and I’ll be right back” When they come back out they have a key card… they say “she tried to argue with us, but we told her ‘you can’t tell them they have to leave and keep their property locked up.. you have to let them in the room to get their stuff” he then handed us a business card and said “she didn’t want to give me the managers info, but I convinced her.. So this is her card. You can call and talk to her about what happened”  we mentioned something about being charged and he said “uh, no… she’s the one making you leave, so she can’t charge you” I said “really? Cause it would suck to pay for 2 hotels after being kicked out in the rain” He said “I’ll be right back” He went back inside. When he came back out he said “she tried to say you agreed to pay and I told her she can’t charge you when she was the one that made you leave, and she tried to argue it but I told her she can’t do that and made her print out these papers saying you’re not being charged..” I was so very thankful!! They kept apologizing just repeating how sorry they were and how horrible this situation was… they walked us to our room and asked if we needed anything else.. I was saying something like “I can’t believe she can kick us out in the rain with nowhere to stay and we’re 4 hours from home…. And it all started because he’s disabled and couldn’t move a fridge… He said ‘I know, it really sucks and I’m truly sorry… if you’d like my partner and I can drive you around to hotels until you find somewhere to stay?  This is horrible” I had been on the line with the Rewards line the entire time since they arrived, so I said “no, the rewards line is working on finding something, so I think we should be ok, if not I guess we’ll sleep in the car tonight since it’s too late and rainy to try and drive home” He apologized again and said “if you need anything at all, just give us a call” and they left. They left at 9:01pm. The agent at the rewards line was back and forth between working with me, and me being on hold through the entire process of the police being there. I had called as soon as we walked outside to wait for the police.  After they left and while Ted was packing stuff up, she came back on and said “my supervisor advised me to call the front desk and ask for the manager. Would you mind holding while I do that please” I agreed. After an extended time she came back on and said “I just wanted to check back with you so you didn’t think I forgot you. I’m still working on, but she put me on an extended hold and never came back. So I’m going to hang up and call back.” The next time she came back on she said “She told me her manager isn’t available for me to talk to and that if I want to talk to him I can send him an email. My supervisor and I are trying to work on finding you a room… just bear with us a little longer while we figure something out” Ted and I finished packing and got in the car and drove next door and sat in the bank  parking lot. She eventually came back on and said the supervisor is working on it and asked if we were still in the room. I told her we weren’t and that we were in the bank parking lot. She asked if her supervisor could call us back in 15 min after she figured out where to put us. I agreed. That was I believe about 10:15…. We had started to give up hope of them finding anything, and Ted fell asleep in the car. Then Melissa the supervisor from the rewards line called back maybe around 10:50 asked “ok, what happened there tonight” I proceeded to recap everything… She was so empathetic and apologized for what we went through, and said we’re going to get you set up here. She even confirmed that she could see on our reservation that in the comment section it says “1st floor medical reasons” so that was a clear indicator that we had made his disabilities known even prior to this incident. I’ve put that in the comment section for years. She moved us to the deer park location. They were very kind and accommodating on both the rewards line as well as the other hotel. She had also told me several times they wouldn’t be charging me for the room… when we settled in I decided to check my credit card balance… concerned about being charged for the room we were kicked out of as well as the credit card scam even though we hadn’t given the credit card info… the balance showed a pending charge in the amount of the room and 1 for dinner. I assumed the room would fall off after it canceled. I went to bed. In the morning I again decided to check just to be sure… I got up about 7:30am. The balance was the same, only reflecting the pending charge for the room and dinner the night before. I went to my function, my husband was too tired to go and so he stayed a little longer.. Shortly after 2:00pm we were about to fill our tank and grab a bite to eat before hitting the road home. I checked again just to make sure everything was ok before putting the charges on. My balance had dropped by close to $100. I immediately call the credit card company. They say a charge for Applebee’s, and 2 charges for LQ in the exact same amount, $94 and change… I said “wait, it’s twice?? Why are you putting it on hold twice??’ she says “because the charged you twice, once on Friday for $94.** and then on Saturday for $94.**” I didn’t know what to do… do I go back to the hotel to ask why I’m being charged? Do I call rewards? Are they authorized to stop payments? I decide to drive back and call them and wait and see what they say. I had gone in briefly, but went back out when they came on the line… it was a different girl working. I speak with Brandy a supervisor at the rewards line.. She put me on hold and when she comes back she says “ok, I made her cancel it and I recorded her stating that it would be canceled, and I made her promise she was deleting all your card info from their system. You should be good. “I asked if I should go in and get written proof since I was right there. I heard her speaking to a gentleman and say “she’s at the property, should she go on and get a paper? No, she said it’s someone else working” then she told me, “yea, since there’s someone else working, go ahead and go in and get written proof… that can be your physical proof to our recording” I go inside. Laura is working. I tell her I’d like to get a copy of the current cancelation. she tells me “there’s nothing we can really give you showing the cancelation” I said “well they gave us a $0 balance paper last night” she said “well I can print you another copy, but it’ll be the same thing you got last night, and besides (she points at the sign on the counter) it takes 14 days for the charges to reverse from your account… if you want them removed you’ll have to give all your credit card info so I can contact them on your behalf” I said “no, what I’m looking for is the cancelation for the charge from today” she said, I don’t have anything for that. She then pulls out the 2 papers from check in and says “I can make you copies of these?” I said “those aren’t the cancelation though?” she said “there’s only the cancelation from last night and these” she slides them and shows me the one with the credit card info and says “see? You authorized us to charge you for the room” I said “that was at check in before I was kicked out” She said “that doesn’t matter, you authorized us to charge you” I said “you weren’t supposed to charge me, even the cops told Jenna she wasn’t to charge me” she said “look, I already heard how you acted last night” I said “really? You mean how we wouldn’t help move a fridge?” she said “no Jenna told me how you acted, she said you were yelling and screaming and irate, and that you kept demanding that she move the refrigerator… and no matter how many times she begged and pleaded with you that she wasn’t strong enough you just wouldn’t stop and you just kept screaming and demanding until she had to have the police remove you” I said “that’s not at all what happened, let me tell you my story” she said “I don’t need to hear your story, I’ve already heard Jenna’s… I said “yea, so you don’t want to hear me and the manager won’t talk to me…” She said “the manager already talked to Jenna and got her side, he doesn’t need yours” I said “Ok, I see how it is, can I get my paperwork please?” she said “there’s no paperwork for me to give you” and about then Jenna walks out from the back.. I had no idea she was there. I said “well you charged me twice, I need 2 cancelations” she argues and states “no way did we charge you twice, your bank is just authorizing it multiple times” I said “they don’t do that and they told me it was 2 definite and separate charges” She said “we didn’t charge you twice, your bank is doing that” I said “no they’re not, and if you charged me again today maybe Jenna is being vindictive and trying to tie up my available funds” She said “she’s not being vindictive and we didn’t charge you” I said “Ok, my bank has proof of 2 charges, if a 3rd charge hits I will be filing charges for credit card fraud on Jenna, so I suggest you make sure it doesn’t go through a 3rd time” When I left I called back to the bank. They said if someone from LQ management would like to have a 3 way call with my bank and I, as long as I’m on the line and authorize it that they can tell them the exact date, time and amount of those 2 charges to prove that it was in fact 2 separate charges placed on 2 separate days from that particular Pasadena location.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>On Friday May 22, 2015 somewhere between approximately 3:30-4:00pm I went in to the Pasadena LA Quinta location located at 3490 East Sam Houston Pkwy South, Pasadena, Texas 77505 to check in. Jenna was working the front desk at the time, and was on the phone with a customer. I heard her giving details on the rooms, fitness and business center etc and could tell it was going to take a few minutes. Since I’ve been having problems with a very painful bad ankle, I decided to sit down and wait until she was finished. When she finished I walked up to the counter, and she thanked me for my patience and we proceeded with the check in. She had me sign 2 documents. First was the document where you initial for the room charge, initial the no smoking policy, and then sign the bottom. The second was a basic old style computer printout that contained some of my credit card info etc. She said that one was authorizing them to charge it to that card. When we were done she handed me my room key and told me breakfast was from 6-9. I asked if there was anything else and she said no, so I went back out to my car where my husband was waiting with the dogs. When I got back to the car I got in and he got in to get a cart to load...On Friday May 22, 2015 somewhere between approximately 3:30-4:00pm I went in to the Pasadena LA Quinta location located at 3490 East Sam Houston Pkwy South, Pasadena, Texas 77505 to check in. Jenna was working the front desk at the time, and was on the phone with a customer. I heard her giving details on the rooms, fitness and business center etc and could tell it was going to take a few minutes. Since I’ve been having problems with a very painful bad ankle, I decided to sit down and wait until she was finished. When she finished I walked up to the counter, and she thanked me for my patience and we proceeded with the check in. She had me sign 2 documents. First was the document where you initial for the room charge, initial the no smoking policy, and then sign the bottom. The second was a basic old style computer printout that contained some of my credit card info etc. She said that one was authorizing them to charge it to that card. When we were done she handed me my room key and told me breakfast was from 6-9. I asked if there was anything else and she said no, so I went back out to my car where my husband was waiting with the dogs. When I got back to the car I got in and he got in to get a cart to load up our stuff. Since it was close to 90deg, one of us stayed in the car with the AC running until the room was ready to take the dogs in so they wouldn’t overheat. He loaded the cart and went in to ready the room. When he came back in he said “you can go in and set up the dogs tents, it’s going to be a little while until we go in, but I think it’s ok if you get that set up a while” I said “why? What’s wrong?” He said “when I went to put stuff in the fridge the door fell off, I went up front to let the lady know and she said we would have to wait until she could get someone to repair it” I said “so we can’t go in and wait?” he said “I guess not, she made it sound like maintenance would need to be able to get in there and we would have to wait out here until they’re done” I said “ok”. I went inside and set up the dog tents and finished taking the stuff off the cart and put it on the chair just inside the door. I pushed the cart back out front by the main doors where they’re stored. Jenna was on the phone discussing reservations with another customer, so I didn’t bother to stop since she was busy. Besides, I had assumed she had contacted maintenance and we were waiting on them. I went back out and Ted and I sat in the car for a spell. We started to talk about that she may not know we were outside, and decided maybe we should check in. I wasn’t sure at this point how long it had been, but it seemed it had been a while. When I went back in, Jenna was again on the phone, but she finished quickly. I don’t recall sitting during this time. When she got off she asked “can I help you?”  I said “I’m just checking the status of our room?” She seemed confused for a second so I said “We were waiting for them to fix the fridge?” She said “oh that, I haven’t gotten around to that yet” I said “oh, ok. Well do you have an approximate time frame so we know what we’re going to do about dinner and such? We’re getting kind of hungry and..” She kind of cut me off and said “I haven’t found anyone to help me move it, can your husband move it for me?”  I said “I’m not really sure, he’s disabled and I think that’s probably beyond his limits, so I doubt it” She seemed to get upset at this point. She stuck her left arm out and grabbed her upper arm with her right hand and said “well I have these weak little lady arms, I don’t know what I’m supposed to do about it” She walked around the counter and said “you know I haven’t been sitting around doing nothing for the last hour, I’ve been working!” I said “ok, well we were just asking because we’re getting hungry since we haven’t eaten yet” She said “well I don’t know what I’m supposed to do about it” I said “ I thought maintenance was coming?” She said “they’ve already left for the day, so I guess I’ll just get a dolly and try to move it myself since neither of you will help me” I told her “ Well I have a really bad back and my husband is disabled, you have lawn guys out front working, maybe one of them can help you?” She looks out the door where one is standing and snaps “they’re with a different company! They don’t work for us! So no they can’t help, and since you won’t help either I’ll find a way to do it myself!” She starts down the hallway and I follow her. She starts to open a door that says “storage” on it. As she turns to open the door she sees me there and pulls it shut again and this time yells at me “I’m handling it!! You don’t have to follow me around!!!! You can go sit down somewhere and I’ll get to it!!” I said “well I thought you were going to go in to the room, and since some of our stuff is already in there I’d like to be present when people go in” She snaps “fine!”. She opens the door, but only partially. She grabs a hand truck/dolly from right inside the door without actually going inside and slams it out through the door. She walks down the hallway to a room that was across the hallway and a few doors down from ours and goes inside. (Later I was talking with my friends outside their room and the room they went in I believe is the same one she was attempting to pull the fridge from… It was Joan and Norm Williams and I believe they were in room 121, and I believe that was the room she entered. I didn’t know it was theirs at the time). When she comes out of the room quickly after, she’s clearly irritated and says “it’s too heavy for me to pick up, I don’t know what to tell you” Since she didn’t want us in the room without it being fixed I said “Well I kind of looked at it earlier. It has a little screw adjustment on the bottom, I tried to tighten it and see if the door would go on. But the top pin seemed to short. Maybe you can look at it and see if you can see if its missing a part or something?” she said “fine, I’ll look” We go inside and I show her where the adjustment is, she says “yea, I see that” then she wiggles the part that holds that piece up and down and says “this part is clearly broken, I can’t do anything about that.. I’ll just have to see if I can find you another room” I said “man, I would really hate to have to move all our stuff to another room after all this time..”  She said ‘well there’s nothing I can do about that!” She walked out of the room. I stood there for a minute unsure of what to do. She had already yelled at me in the hallway, so I wasn’t sure how to proceed. I thought for a minute before I left and decided that she had said she was going to look for another room, so I was supposed to follow her out front to get it. When I get out front she sees me and aggressively snaps “yes ma’am?!?!” I said “you said you were going to look for another room, so I thought you wanted me to follow you?” She moans, looks around and picks up a stack of papers that were combined with room keys. She takes one from the bottom of the stack, looks at it and Snaps “not that one!!”  Flips through 3 or 4 more and snaps “not them either!!!” and quickly flips the rest and slams the stack back in the basket and snaps “nope!! Not any of those!! I don’t know what to tell you!! Figure something out!!!!” so I say “ok, well can we stay in there if I can find a way to rig it back on temporarily?” she says “sure!! Do whatever you want!! cause I don’t know what to tell you!!!” I said “ok, but it’s ok for us to stay in there and we won’t get charged for it, right?” she says “yea, sure. Whatever..”  So I go back in and fiddle around with it and kind of wedge the door in place by pushing it back inside the compartment it was housed in. It held as long as you didn’t pull on it. I went out and told ted I rigged it up, so we were allowed to stay in the room. We unloaded the dogs and went into the room for a few minutes. Got the dogs settled in their crates and fed so they could rest while we were gone and we left to go have dinner at Applebee’s right around the corner. We went back to the room. It was after 7:30 at this point. I was tired and decided to walk the dogs so I could relax and before the storm hit. On one of my trips out (I walk the dogs individually) I ran into friends in the hallway. We talked for quite some time until we all agreed we needed to go take care of the dogs so we could relax. I took my dog out and went back to the room. I was barely in there and putting my dog up when I thought I heard the phone ringing in the bedroom area. Ted was in there so I called over “ted is the phone ringing?” I think he had fallen asleep as he hadn’t seemed to hear it and was a little disoriented at first” I heard him answer it and continued on with getting things ready to go to bed. I was in the living room area (it was a suite). At some point I hear him giving our address “*1* Sh*** G**** ln, A*K***, TX *****” and I say ‘what are you doing?” He doesn’t respond, but I hear him repeating our address and then giving my phone number. SO I say louder “ted, what’s going on?!?” He said “what credit card did you pay with?” I told him the last 4 digits not thinking he was going to say much and figuring they shouldn’t need more than that for verification. He says “was it a master card or visa?” I said “I don’t know it was (and I repeat the last 4) he says “yea, but they need to know if it’s a MasterCard or visa” I said “why do they need to know that??” he said “it’s the manager and he said that the computers crashed and they need to re-enter everyone’s info” I said “he? It’s a girl working?” He said “no, this is the general manager” I said “why would he be calling?” he said “I don’t know, maybe he came in because they were having problems” I asked “if we were going to get charged twice?” He said “he said no, since the computers crashed you weren’t charged, so you’ll only get charged once” I said “well they should still have the card info on file” He said “he told me all that info was deleted in the crash” (we had actually been through a situation like that at an LQ years ago where there was a problem and they locked our door out, when we went up front to tell them our key wasn’t working they said they had a problem when they tried to run our card overnight and needed to run our card again physically, so it seemed legit since its happened before). I told him “I don’t have it with me, my wallet is still in the car” I hear him change tone a bit and say “no, I’m really not comfortable giving you my credit card info over the phone, we’ll just come to the lobby” a pause and then he says “no, that’s ok, we’ll just come to the lobby” I asked ted to come with me. We walk out the back entrance and go to our car, I get my wallet and we walk up to the front doors.. At which point I see no ones in the lobby. I say to ted “if their computers crashed, why is no one here but us? No ones in there?  That seems odd” He replies “yea, that IS kind of strange” as soon as we walk through the doors, before we get to the counter he says to Jenna “are you having problems with your computer?”  She says “no, why?” he says “someone called my room saying your computer crashed…” She cut him off and said “that’s a scam” he said “huh?” she said you didn’t give him info right?” he said “no, why?” she said someone’s been calling several rooms every night and asking for credit card info” then she said “I’ll take down your info” he said “wait…why? What’s going on? You mean to tell me this person is calling rooms every night? Why aren’t you telling you’re customers?” she points to the elevated counter to a 3x4 sheet of paper with very fine print (that I never did get to read) and says “it’s right there” he said “that’s near impossible to see.. Why wouldn’t you put up a big sign or tell people??” she said “I do, I tell everyone at check in” I said “you didn’t tell me?” she said “yes I did, I tell everyone” I said “no you didn’t, or we wouldn’t have given him as much info as we did, nor would we have come down here with our credit card to pay again” Ted said “why not just put a big sign right here on the counter like this one?” She said it’s not La Quintas responsibility to notify you of anything!!” he said “well maybe not, but its good customer service to do so if you know there’s a scam going on” He said “can’t you shut down the calls at the switchboard or something?” she said “no, we have no way of doing that or tracing any of the calls to block them or anything, and besides you should be smart enough to not give out your info” The “smart enough” comment did it for me, and I said to ted “you know, she’s been rude and nasty ever since I told her you couldn’t help move that fridge” and he says “I know, you’re right” so he looks at her and says “this really has been a bad experience from the start, I think with everything that’s been going on, and with this credit card scam I’d like to talk to the manager” She said “If you’re so unhappy you’re free to go to another hotel” He said “no, I don’t want to go to another hotel, I’d like to speak to the manager. She said “no, you’re not talking to the manager and you can get your stuff and get out of my hotel” He said “all I want to do is speak to the manager, can I speak to the manager???” she said “you’re not talking to anyone! And if you don’t vacate the premises immediately I’m calling the police!!” He said “because I want to talk to the manager??” she said “I told you, you’re not talking to him!!!” I said “you’re going to call the police because we asked for a manager??” and she said “yes!! No get out!!!” I said to ted “don’t interact with her anymore, let’s go back to the room and call the LQ line and figure this out…”this was at 8:39pm, I had checked my watch to see what we were going to do. I think when I said that, this is what made her lock out my room as when I got back to go inside the room key wouldn’t work.. I tried turning it, holding it, moving it up and down etc… we were locked out.  We had been in and out of that room dozens of times and the keys worked fine. She locked us out. I called down to ted in a bit of a panic at this point “ted she locked us out!! The dogs are in there!! My car keys are in there!! Holy crap, she locked all our stuff in the room!!” I went back out front and said “you locked us out! All our stuff is in there! We need to get our stuff!!” She ignored me and was on her cell phone talking.. I said “who’s she talking to?!?” Ted said “I don’t know, I think she called the police” I said “oh my God, all this because we wanted to talk to a manger?!? Oh my God, my dogs are in the room!! And you locked us out!!” Ted said to me “come on, the police are on their way… we’ll wait for them out front”  We went out front and I started to put my wallet back in my car, but decided to keep it in case the police wanted my ID…. I locked my car back up and walked back to the front just as the police pulled up. They walked up and shook Teds hand and asked if he was the one that called them. He said “no, the lady inside did” We recount our story. They say “ok, we’re going to go in and talk to her, but we want you to know that state law states that she can have you removed and she doesn’t even have to have a reason to do so.” I said “even though its only because we asked for a manger or the fact that it goes back to her being mad that my husband is disabled and couldn’t move a fridge when she asked him to” They said “unfortunately yes, she can say you have to leave and never tell us why. I think it’s horrible what’s she’s doing to you, and I don’t like it either… and I’m very sorry… but yes, the law says if she says you have to leave then you have to leave… talk to the manager about what happened.” I said “we can’t, she won’t give us his info and says we’re not allowed to talk to him” he said “let me see what I can find out for you and I’ll be right back” When they come back out they have a key card… they say “she tried to argue with us, but we told her ‘you can’t tell them they have to leave and keep their property locked up.. you have to let them in the room to get their stuff” he then handed us a business card and said “she didn’t want to give me the managers info, but I convinced her.. So this is her card. You can call and talk to her about what happened”  we mentioned something about being charged and he said “uh, no… she’s the one making you leave, so she can’t charge you” I said “really? Cause it would suck to pay for 2 hotels after being kicked out in the rain” He said “I’ll be right back” He went back inside. When he came back out he said “she tried to say you agreed to pay and I told her she can’t charge you when she was the one that made you leave, and she tried to argue it but I told her she can’t do that and made her print out these papers saying you’re not being charged..” I was so very thankful!! They kept apologizing just repeating how sorry they were and how horrible this situation was… they walked us to our room and asked if we needed anything else.. I was saying something like “I can’t believe she can kick us out in the rain with nowhere to stay and we’re 4 hours from home…. And it all started because he’s disabled and couldn’t move a fridge… He said ‘I know, it really sucks and I’m truly sorry… if you’d like my partner and I can drive you around to hotels until you find somewhere to stay?  This is horrible” I had been on the line with the Rewards line the entire time since they arrived, so I said “no, the rewards line is working on finding something, so I think we should be ok, if not I guess we’ll sleep in the car tonight since it’s too late and rainy to try and drive home” He apologized again and said “if you need anything at all, just give us a call” and they left. They left at 9:01pm. The agent at the rewards line was back and forth between working with me, and me being on hold through the entire process of the police being there. I had called as soon as we walked outside to wait for the police.  After they left and while Ted was packing stuff up, she came back on and said “my supervisor advised me to call the front desk and ask for the manager. Would you mind holding while I do that please” I agreed. After an extended time she came back on and said “I just wanted to check back with you so you didn’t think I forgot you. I’m still working on, but she put me on an extended hold and never came back. So I’m going to hang up and call back.” The next time she came back on she said “She told me her manager isn’t available for me to talk to and that if I want to talk to him I can send him an email. My supervisor and I are trying to work on finding you a room… just bear with us a little longer while we figure something out” Ted and I finished packing and got in the car and drove next door and sat in the bank  parking lot. She eventually came back on and said the supervisor is working on it and asked if we were still in the room. I told her we weren’t and that we were in the bank parking lot. She asked if her supervisor could call us back in 15 min after she figured out where to put us. I agreed. That was I believe about 10:15…. We had started to give up hope of them finding anything, and Ted fell asleep in the car. Then Melissa the supervisor from the rewards line called back maybe around 10:50 asked “ok, what happened there tonight” I proceeded to recap everything… She was so empathetic and apologized for what we went through, and said we’re going to get you set up here. She even confirmed that she could see on our reservation that in the comment section it says “1st floor medical reasons” so that was a clear indicator that we had made his disabilities known even prior to this incident. I’ve put that in the comment section for years. She moved us to the deer park location. They were very kind and accommodating on both the rewards line as well as the other hotel. She had also told me several times they wouldn’t be charging me for the room… when we settled in I decided to check my credit card balance… concerned about being charged for the room we were kicked out of as well as the credit card scam even though we hadn’t given the credit card info… the balance showed a pending charge in the amount of the room and 1 for dinner. I assumed the room would fall off after it canceled. I went to bed. In the morning I again decided to check just to be sure… I got up about 7:30am. The balance was the same, only reflecting the pending charge for the room and dinner the night before. I went to my function, my husband was too tired to go and so he stayed a little longer.. Shortly after 2:00pm we were about to fill our tank and grab a bite to eat before hitting the road home. I checked again just to make sure everything was ok before putting the charges on. My balance had dropped by close to $100. I immediately call the credit card company. They say a charge for Applebee’s, and 2 charges for LQ in the exact same amount, $94 and change… I said “wait, it’s twice?? Why are you putting it on hold twice??’ she says “because the charged you twice, once on Friday for $94.** and then on Saturday for $94.**” I didn’t know what to do… do I go back to the hotel to ask why I’m being charged? Do I call rewards? Are they authorized to stop payments? I decide to drive back and call them and wait and see what they say. I had gone in briefly, but went back out when they came on the line… it was a different girl working. I speak with Brandy a supervisor at the rewards line.. She put me on hold and when she comes back she says “ok, I made her cancel it and I recorded her stating that it would be canceled, and I made her promise she was deleting all your card info from their system. You should be good. “I asked if I should go in and get written proof since I was right there. I heard her speaking to a gentleman and say “she’s at the property, should she go on and get a paper? No, she said it’s someone else working” then she told me, “yea, since there’s someone else working, go ahead and go in and get written proof… that can be your physical proof to our recording” I go inside. Laura is working. I tell her I’d like to get a copy of the current cancelation. she tells me “there’s nothing we can really give you showing the cancelation” I said “well they gave us a $0 balance paper last night” she said “well I can print you another copy, but it’ll be the same thing you got last night, and besides (she points at the sign on the counter) it takes 14 days for the charges to reverse from your account… if you want them removed you’ll have to give all your credit card info so I can contact them on your behalf” I said “no, what I’m looking for is the cancelation for the charge from today” she said, I don’t have anything for that. She then pulls out the 2 papers from check in and says “I can make you copies of these?” I said “those aren’t the cancelation though?” she said “there’s only the cancelation from last night and these” she slides them and shows me the one with the credit card info and says “see? You authorized us to charge you for the room” I said “that was at check in before I was kicked out” She said “that doesn’t matter, you authorized us to charge you” I said “you weren’t supposed to charge me, even the cops told Jenna she wasn’t to charge me” she said “look, I already heard how you acted last night” I said “really? You mean how we wouldn’t help move a fridge?” she said “no Jenna told me how you acted, she said you were yelling and screaming and irate, and that you kept demanding that she move the refrigerator… and no matter how many times she begged and pleaded with you that she wasn’t strong enough you just wouldn’t stop and you just kept screaming and demanding until she had to have the police remove you” I said “that’s not at all what happened, let me tell you my story” she said “I don’t need to hear your story, I’ve already heard Jenna’s… I said “yea, so you don’t want to hear me and the manager won’t talk to me…” She said “the manager already talked to Jenna and got her side, he doesn’t need yours” I said “Ok, I see how it is, can I get my paperwork please?” she said “there’s no paperwork for me to give you” and about then Jenna walks out from the back.. I had no idea she was there. I said “well you charged me twice, I need 2 cancelations” she argues and states “no way did we charge you twice, your bank is just authorizing it multiple times” I said “they don’t do that and they told me it was 2 definite and separate charges” She said “we didn’t charge you twice, your bank is doing that” I said “no they’re not, and if you charged me again today maybe Jenna is being vindictive and trying to tie up my available funds” She said “she’s not being vindictive and we didn’t charge you” I said “Ok, my bank has proof of 2 charges, if a 3rd charge hits I will be filing charges for credit card fraud on Jenna, so I suggest you make sure it doesn’t go through a 3rd time” When I left I called back to the bank. They said if someone from LQ management would like to have a 3 way call with my bank and I, as long as I’m on the line and authorize it that they can tell them the exact date, time and amount of those 2 charges to prove that it was in fact 2 separate charges placed on 2 separate days from that particular Pasadena location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r275039991-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>275039991</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Great staff, convenient location for dog agility trials, but needs different mattresses</t>
+  </si>
+  <si>
+    <t>This was a nice quiet hotel, with very nice staff. It has the typical LQ breakfast which includes hard boiled eggs and I appreciate that. Even though there were a lot of kids and dogs in the hotel for the Memorial weekend it was still nice and quiet. I had a nice king bed suite and enjoyed the space. Having a microwave and a fridge is so handy and allowed me to have some of my favorite drinks and foods while there, like nighttime popcorn with a glass of wine. The only drawback was the mattress. It was awful, hard as a rock. The first night, I felt like my body had been rolled around on rocks. The second night I tried taking the cushions from the couch and chair and lining those up on the bed and sleeping on them, but that was tough to stay on. On the last night of my stay, I just took all the bed pillows, laid those down and put a cover over them and slept on that. That was the best plan. Hopefully they'll be getting some new mattresses before I have to work in that location again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a nice quiet hotel, with very nice staff. It has the typical LQ breakfast which includes hard boiled eggs and I appreciate that. Even though there were a lot of kids and dogs in the hotel for the Memorial weekend it was still nice and quiet. I had a nice king bed suite and enjoyed the space. Having a microwave and a fridge is so handy and allowed me to have some of my favorite drinks and foods while there, like nighttime popcorn with a glass of wine. The only drawback was the mattress. It was awful, hard as a rock. The first night, I felt like my body had been rolled around on rocks. The second night I tried taking the cushions from the couch and chair and lining those up on the bed and sleeping on them, but that was tough to stay on. On the last night of my stay, I just took all the bed pillows, laid those down and put a cover over them and slept on that. That was the best plan. Hopefully they'll be getting some new mattresses before I have to work in that location again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r263352671-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>263352671</t>
+  </si>
+  <si>
+    <t>03/26/2015</t>
+  </si>
+  <si>
+    <t>FRIENDLY</t>
+  </si>
+  <si>
+    <t>Everyone was very friendly and helpful. Check in and out were very fast. We also loved that La Quinta is a pet friendly hotel. This is very convenient for pet owners.  The breakfast was very good, wished it could be extended for another hour or so. Since we all usually sleep in..</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r260659181-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>260659181</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>Oh what a night.......not....</t>
+  </si>
+  <si>
+    <t>This hotel had a slight smell in the room, squeaky bed, and horrible internet!  Staff appears clueless when it comes to service.  One staff member couldn't be torn away from the cell phone and texting..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r258240763-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>258240763</t>
+  </si>
+  <si>
+    <t>03/07/2015</t>
+  </si>
+  <si>
+    <t>Extremely slow internet, clean rooms</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights. I stayed in 2 different rooms both were very nice and clean, very modern looking.the upgraded rooms are pretty  big with a separate bedroom and living room area.The internet here was EXTREMELY SLOW. Trying to do any online business work was very hard. I Do not recommend this hotel if you need to do work online!I also tried using their business center pc thinking maybe their wifi router was just flooded but same thing.  The computer also didn't have a program to open pdf's and was locked so you can't install one.My first rooms (215) ac was Making a loud squeeling noise at night so I changed rooms my second day.The shower did get nice and hot but there is a slight musty smell coming from the water. At first I thought it was just the first room but I noticed the smell in the seccond room as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights. I stayed in 2 different rooms both were very nice and clean, very modern looking.the upgraded rooms are pretty  big with a separate bedroom and living room area.The internet here was EXTREMELY SLOW. Trying to do any online business work was very hard. I Do not recommend this hotel if you need to do work online!I also tried using their business center pc thinking maybe their wifi router was just flooded but same thing.  The computer also didn't have a program to open pdf's and was locked so you can't install one.My first rooms (215) ac was Making a loud squeeling noise at night so I changed rooms my second day.The shower did get nice and hot but there is a slight musty smell coming from the water. At first I thought it was just the first room but I noticed the smell in the seccond room as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r251165272-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>251165272</t>
+  </si>
+  <si>
+    <t>01/20/2015</t>
+  </si>
+  <si>
+    <t>Needs Renovations and cleaning</t>
+  </si>
+  <si>
+    <t>The floor was uneven making it easy to trip.  The carpet was filthy.  The shower was only partially functional.  No one would answer the front desk phone in the evening. The breakfast was very limited and very cold.  The worst LaQuinta I have ever stayed at, will not go back.  This room was overpriced for the condition it was in.  And also, there was black soot all over the floor that was coming out of the air conditioner which in turn got on our clothes.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r251165112-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>251165112</t>
+  </si>
+  <si>
+    <t>01/03/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel Stay</t>
+  </si>
+  <si>
+    <t>We had a lovely stay at this hotel before leaving on a cruise out of Houston.  We enjoyed the selections at the complimentary breakfast which included waffles. Also it included fresh fruit and coffee which was very good. The staff were friendly and check out was fast.  We will return for another stay.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r243154237-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>243154237</t>
+  </si>
+  <si>
+    <t>12/05/2014</t>
+  </si>
+  <si>
+    <t>Excellant Stay</t>
+  </si>
+  <si>
+    <t>Everyone was friendly as soon as I walked in the door, each morning and evening there hello's and good bye's.  Nothing negative to say about the stay. Plenty of places to visit from this area and great food all around.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r240953783-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>240953783</t>
+  </si>
+  <si>
+    <t>11/22/2014</t>
+  </si>
+  <si>
+    <t>Great Place!!!!!!!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had a nice stay. We were only here for one night. The gentlemen that checked us in, was super nice. He helped me take care of some business.  I would definitely come here again. We are on the front side of the building &amp; you can here the traffic outside. So if your a lite sleeper, you may want to request a room on the back side of the hotel. It may be more quiet there. Landscaping outside was beautiful. They offered a nice breakfast but didn't have the Texas shaped waffle, I had at another La Quinta.  =( </t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r239117090-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>239117090</t>
+  </si>
+  <si>
+    <t>11/10/2014</t>
+  </si>
+  <si>
+    <t>Nice stop for cruisers ....</t>
+  </si>
+  <si>
+    <t>The La Quinta is located in a predominantly industrial area. We chose it for its proximity to the Port of Houston. It was surprisingly quiet , clean and comfortable. We booked two double rooms. Both were well kept and the breakfast was better than most .</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r238408512-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>238408512</t>
+  </si>
+  <si>
+    <t>11/05/2014</t>
+  </si>
+  <si>
+    <t>Comfy clean place to lay your head</t>
+  </si>
+  <si>
+    <t>This hotel met all my expectations for a clean, reasonably priced place to stay.  THe staff was friendly and helpful and the hotel was quite nice.  It's a good bonus that they have free breakfast and actually have a variety of food available too.  PLUS they are pet friendly.  Perfect for us.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r222290248-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>222290248</t>
+  </si>
+  <si>
+    <t>08/16/2014</t>
+  </si>
+  <si>
+    <t>Nice stay!</t>
+  </si>
+  <si>
+    <t>This is a modern property in a convenient location off of Beltway 8. Front desk was very friendly. My king room was large with a separate living area with couch, chair and a second TV. Bathroom was also large and updated. My only negative comment is that I found the bed to be quite hard, I am used to sleeping on a pillow top mattress. Had the bed been more comfy, I would have rated 4 stars. This property is a good value.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r211953983-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>211953983</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>Bad Experience</t>
+  </si>
+  <si>
+    <t>I tried to book a room online 1 1/2 months before my trip and it wouldn't work.  I spoke to two representatives on the 800 number they couldn't help and I spoke with a very nice lady at the hotel in Pasadena, TX and she booked the room for me at the higher price and made a note of the problems I was having with the online process. She told me to speak with the manager when I checked in to see what could be done. I tried to contact him on several times and he never returned my calls and would not help me. on 4/17 I gave a credit card to guaranty an ADA room w/a walk in shower for my disable 91 yr old mother and it was not reserved when I arrived on 6/20. I was put in an ADA room not equipped with a handicapped tub.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I tried to book a room online 1 1/2 months before my trip and it wouldn't work.  I spoke to two representatives on the 800 number they couldn't help and I spoke with a very nice lady at the hotel in Pasadena, TX and she booked the room for me at the higher price and made a note of the problems I was having with the online process. She told me to speak with the manager when I checked in to see what could be done. I tried to contact him on several times and he never returned my calls and would not help me. on 4/17 I gave a credit card to guaranty an ADA room w/a walk in shower for my disable 91 yr old mother and it was not reserved when I arrived on 6/20. I was put in an ADA room not equipped with a handicapped tub.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r204875229-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>204875229</t>
+  </si>
+  <si>
+    <t>05/09/2014</t>
+  </si>
+  <si>
+    <t>Nicer than I expected</t>
+  </si>
+  <si>
+    <t>My friend and I were in Houston to visit her mother. The room had lovely decor, but the air conditioner didn't feel as cool as we thought it should; it wasn'tunbearable, though. The bathroom was pretty with granite countertops. The front desk people were so nice every shift. The continental breakfast was good, although I'm pretty sure the eggs were a bit too spongy to be real. lol. The pool/hottub area was tidy. The hotel was close to a lot of different restaurants, bars, liquor stores, and a Wal-Mart.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r200411874-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>200411874</t>
+  </si>
+  <si>
+    <t>04/08/2014</t>
+  </si>
+  <si>
+    <t>Great Room</t>
+  </si>
+  <si>
+    <t>Great room and excellent Handicap accessibility which is important for me as I'm in a wheelchair....The Staff were very nice and friendly. Breakfast was better than most others. I will stay at this Hotel again.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r193502655-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>193502655</t>
+  </si>
+  <si>
+    <t>02/08/2014</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r188496125-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>188496125</t>
+  </si>
+  <si>
+    <t>12/25/2013</t>
+  </si>
+  <si>
+    <t>Needs updating already</t>
+  </si>
+  <si>
+    <t>Just okay. Things done to the room were done poorly. Large chips were on the bathtub porcellin. The mirror was attached haphazardly. However, the daily maid service was great.The hotel is close to a lot of good shopping.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r173837520-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>173837520</t>
+  </si>
+  <si>
+    <t>08/24/2013</t>
+  </si>
+  <si>
+    <t>Solid, but weak breakfast</t>
+  </si>
+  <si>
+    <t>Stayed here one night only.  Renovated rooms were super, lobby nice, staff really nice.  Didn't have time for the pool or gym.  While I don't expect that much from a free breakfast, relative to Hampton Inns and other similar hotels the breakfast was weak here.  Dropped my rating 1 star due to breakfast.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r170851600-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>170851600</t>
+  </si>
+  <si>
+    <t>08/05/2013</t>
+  </si>
+  <si>
+    <t>Lovely service &amp; accommodations</t>
+  </si>
+  <si>
+    <t>La Quinta delivers!  From service to accommodations, this place is second to none.  We even were greeted by the manager, Mimi, and personally greeted daily by the front desk personnel by name (and a special thank you to Kim).  Top notch hot eggs/bacon/sausage breakfast.  A spacious room.  And most of all:  treated like royalty.  Hubby and I traveling for business and stayed for 16 nights at this wonderful hotel.  We've marked this spot as a favorite.  You won't be disappointed if you stay here.  Our thanks to the entire staff.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r169153876-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>169153876</t>
+  </si>
+  <si>
+    <t>07/26/2013</t>
+  </si>
+  <si>
+    <t>Very quiet and comfortable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our first stay at La Quinta and quite nice.  Everything was very satisfactory from the time of making reservation to checkout time.  Breakfast was very nice, variety excellent and service was very good.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r166479609-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>166479609</t>
+  </si>
+  <si>
+    <t>07/06/2013</t>
+  </si>
+  <si>
+    <t>Excellent staff and service</t>
+  </si>
+  <si>
+    <t>We arrived to the hotel. A smoke free facility is always a plus in my book. The receptionist was excellent and very knowledgable about the area. She was very friendly. Quality of the hotel was better than any 3 or 3.5 star hotel I had ever been to or stayed in. Rooms were clean, very spacious. Bed was soft and comfy. And they served hot breakfast, including eggs, sausage, waffles, and a variety of muffins. Overall, loved this hotel and would stay again :-)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r166037476-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>166037476</t>
+  </si>
+  <si>
+    <t>07/02/2013</t>
+  </si>
+  <si>
+    <t>Excellent experience</t>
+  </si>
+  <si>
+    <t>I believe the front desk attendant sets the tone for the stay and is representative of the type of service one can expect to receive at the establishment. The young lady who checked us in and out was very congenial and helpful.  Also, although we were told the hotel was experiencing some minor renovations, we were not at all inconvenienced. The hotel and our room were spotless.  The next time we are in town, we will definitely choose the same location for our stay.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r165497809-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>165497809</t>
+  </si>
+  <si>
+    <t>06/27/2013</t>
+  </si>
+  <si>
+    <t>Awesome!!!</t>
+  </si>
+  <si>
+    <t>Best La Quinta hotel I ever stayed in. When I booked this hotel I was thinking it would be a regular La Quinta but this hotel is really beautiful. My last experience with a La Quinta hotel was horrible and I said to myself I would never stay in another one but this hotel here changed my mind. So when ever your Pasadena stay here you will enjoy your stay.Trust me.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r162856632-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>162856632</t>
+  </si>
+  <si>
+    <t>06/03/2013</t>
+  </si>
+  <si>
+    <t>Another clean, pleasant stay</t>
+  </si>
+  <si>
+    <t>I've stayed at this La Quinta several times when in town to visit family.  My 'special requests' are always taken care of, and staff on all shifts during all visits have been friendly and attentive.  Some of the flooring throughout the building and rooms is being renovated, and I was told that new furniture is slated to go in, beginning early June.  While not pristine, this hotel is good value, in a good location and meets my needs as a solo traveler.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r162426314-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>162426314</t>
+  </si>
+  <si>
+    <t>05/30/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r159140775-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>159140775</t>
+  </si>
+  <si>
+    <t>04/29/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r153145808-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>153145808</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>Recommend this LQ!</t>
+  </si>
+  <si>
+    <t>This is our second time to stay at this LQ.  The management and staff are professional, friendly, and quick to meet our requests and provide local information.  It is clean, and quiet in a good location.  Would recommend this LQ to others.  The personnel and manager are super!</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r142254206-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>142254206</t>
+  </si>
+  <si>
+    <t>10/07/2012</t>
+  </si>
+  <si>
+    <t>PHS Reunion</t>
+  </si>
+  <si>
+    <t>Meet all our needs. Was able to use meeting room as a gathering place and a visiting room after out of hotel events. Staff made up a board for us to post daily events near the front door. Location is near major expressway, mall,service stations, and many cafes, golf, and the gulf coast. We had seafood dinner at the Kemah Boardwalk and the food was great..</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r140622914-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>140622914</t>
+  </si>
+  <si>
+    <t>09/18/2012</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r137538886-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>137538886</t>
+  </si>
+  <si>
+    <t>08/18/2012</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r135889723-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>135889723</t>
+  </si>
+  <si>
+    <t>07/31/2012</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r135618968-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>135618968</t>
+  </si>
+  <si>
+    <t>07/28/2012</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Great stay, nice friendly staff. Great breakfast and an awesome bed. Great service all the way around including breakfast. You can count on the staff to help you with anything. Exercise room, computer room, swimming pool with spa, guest room to have meetings in, and an awesome warm/cool breakfast what more could you ask for, for the price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r124267721-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>124267721</t>
+  </si>
+  <si>
+    <t>02/07/2012</t>
+  </si>
+  <si>
+    <t>RUN!!!</t>
+  </si>
+  <si>
+    <t>This place is horrible! Hot tub was green. Pool was not clean either. Garbage overflowing. They state they are "PET FRIENDLY" NOPE!  Not unless you want your pet eating rat poison. Then when we went to the front desk to ask them about it; the girl had to stop curling her hair to respond and then it was " oh no" she grabbed it and threw it away. (night shift ) After a trip to the local vet to confirm it was rat poison. They still have not done anything. Not even a phone call!  DO NOT STAY HERE!!!!!!!!!!!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r123224640-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>123224640</t>
+  </si>
+  <si>
+    <t>01/17/2012</t>
+  </si>
+  <si>
+    <t>Not bad, not great, just okay.</t>
+  </si>
+  <si>
+    <t>I stay at a number of chain hotels including La Quinta, so I am familiar with what to expect at La Quinta.  This hotel is not bad, but it is one of the worst La Quinta for me.  Pro's: The staff is GREAT, Free Wi-Fi, mini fridge and microwave in the room, Clean, Dog stayed for free and the rate of $82/night is great.  Con's: I wish they had more electrical outlets around the room for 2 people charging phones, computers, etc.  The room showed its wear and tear age.  You can hear traffic noise. The breakfast bar was probably the worst of all La Quinta's I've been to.  With all that said,  I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>I stay at a number of chain hotels including La Quinta, so I am familiar with what to expect at La Quinta.  This hotel is not bad, but it is one of the worst La Quinta for me.  Pro's: The staff is GREAT, Free Wi-Fi, mini fridge and microwave in the room, Clean, Dog stayed for free and the rate of $82/night is great.  Con's: I wish they had more electrical outlets around the room for 2 people charging phones, computers, etc.  The room showed its wear and tear age.  You can hear traffic noise. The breakfast bar was probably the worst of all La Quinta's I've been to.  With all that said,  I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r122972507-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>122972507</t>
+  </si>
+  <si>
+    <t>01/12/2012</t>
+  </si>
+  <si>
+    <t>More than adequate</t>
+  </si>
+  <si>
+    <t>It IS a pretty non-descript area, but nothing bad or scary. And a very short quick drive to the main drags of Pasadena where one find restaurants, etc. The hotel is clearly pretty new, and in very nice shape. Check in was quick and simple. Because the hotel is a good 100 yards or more back from the feeder, even the rooms facing the tollway are quiet. Though the low white noise from the AC unit doesn't hurt.The rooms are large, nicely equipped. A nice mix of pillows to work with, from feather to foam. Breakfast looked good as well. The parking area out front is well lit. I would certainly stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>It IS a pretty non-descript area, but nothing bad or scary. And a very short quick drive to the main drags of Pasadena where one find restaurants, etc. The hotel is clearly pretty new, and in very nice shape. Check in was quick and simple. Because the hotel is a good 100 yards or more back from the feeder, even the rooms facing the tollway are quiet. Though the low white noise from the AC unit doesn't hurt.The rooms are large, nicely equipped. A nice mix of pillows to work with, from feather to foam. Breakfast looked good as well. The parking area out front is well lit. I would certainly stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r58880998-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>58880998</t>
+  </si>
+  <si>
+    <t>03/18/2010</t>
+  </si>
+  <si>
+    <t>Go quick while it is new</t>
+  </si>
+  <si>
+    <t>We have stayed on this corner in Pasadena for a number of years for business.  We noticed the new La Quinta being built last year and with a discounted weekend rate $69/night we decided to give it a try.  As stated in other reviews the parking is not particularly secure though we did not have any problems.  The checkin/checkout was complicated by problems with their computer system but the staff was friendly and we did get our room.  The room was very spacious and clean.  It is a split room set up with a living area and bedroom separated by the bath.  There is a fridge, coffee pot and microwave in the room as well as an ironing board/iron, and two tv's.  The room, carpets and linens were clean and the mattress and pillow were in like new condition.  The breakfast was very good with cereals, breads, pastries, boiled eggs, waffles, juice and very good coffee. The hotel is convenient to shopping and restaurants in a decent suburban neighborhood.Unfortunately the construction of the hotel is lacking and I imagine in a few years this hotel will have maintenance issues.  Poorly fitted doors, loose tiles and the like.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>We have stayed on this corner in Pasadena for a number of years for business.  We noticed the new La Quinta being built last year and with a discounted weekend rate $69/night we decided to give it a try.  As stated in other reviews the parking is not particularly secure though we did not have any problems.  The checkin/checkout was complicated by problems with their computer system but the staff was friendly and we did get our room.  The room was very spacious and clean.  It is a split room set up with a living area and bedroom separated by the bath.  There is a fridge, coffee pot and microwave in the room as well as an ironing board/iron, and two tv's.  The room, carpets and linens were clean and the mattress and pillow were in like new condition.  The breakfast was very good with cereals, breads, pastries, boiled eggs, waffles, juice and very good coffee. The hotel is convenient to shopping and restaurants in a decent suburban neighborhood.Unfortunately the construction of the hotel is lacking and I imagine in a few years this hotel will have maintenance issues.  Poorly fitted doors, loose tiles and the like.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r45210826-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>45210826</t>
+  </si>
+  <si>
+    <t>09/28/2009</t>
+  </si>
+  <si>
+    <t>Confirm and RE-Confirm your Rooms!</t>
+  </si>
+  <si>
+    <t>I reserved our room for the pasadena Rodeo weekend.  My sister called that she wanted to come with us.  I called the hotel, Tommy answered, and added another room next to ours. He even assigned us our room numbers.  My other sister already had her room as well.  Well we get there at 3:00 (mind you due to rodeo, all hotels are booked in this small town). The attendandt tells us that we only have the 1 room booked and that there are not more rooms, AND someone changed our rooms.  My sister and i bunked and was no big deal.  The BIG Deal, is that when I saw "TOMMY" later in the evening and I complained, he remembered our conversation, and said :someone else must have changed the reservation.  I dont understand how staff can go into system and jus take rooms away or change them around, especially on an evening that is 100% full.  the "contintnal" breakfast was a joke and the capachino machine was "out of order".  Problem with these kind of stays is that the customer has really no choice when the hotels are limited in an area ALL of them are motels. Just doesnt sit well.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>lq0825, General Manager at La Quinta Inn &amp; Suites Pasadena, responded to this reviewResponded September 30, 2009</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2009</t>
+  </si>
+  <si>
+    <t>I reserved our room for the pasadena Rodeo weekend.  My sister called that she wanted to come with us.  I called the hotel, Tommy answered, and added another room next to ours. He even assigned us our room numbers.  My other sister already had her room as well.  Well we get there at 3:00 (mind you due to rodeo, all hotels are booked in this small town). The attendandt tells us that we only have the 1 room booked and that there are not more rooms, AND someone changed our rooms.  My sister and i bunked and was no big deal.  The BIG Deal, is that when I saw "TOMMY" later in the evening and I complained, he remembered our conversation, and said :someone else must have changed the reservation.  I dont understand how staff can go into system and jus take rooms away or change them around, especially on an evening that is 100% full.  the "contintnal" breakfast was a joke and the capachino machine was "out of order".  Problem with these kind of stays is that the customer has really no choice when the hotels are limited in an area ALL of them are motels. Just doesnt sit well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r29966725-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>29966725</t>
+  </si>
+  <si>
+    <t>05/14/2009</t>
+  </si>
+  <si>
+    <t>Very great staff!</t>
+  </si>
+  <si>
+    <t>We chose the La Quinta because there were no other good choices in Pasadena (its mostly motels around here).  It turned out to be a good choice, very friendly and helpful staff. I had a problem with my loose toilet seat and they fixed it by the time i came back in the afternoon.  Rooms were very nice and clean... It looked like they just remodeled the place.  We will definitely stay here every time we return to the area.</t>
+  </si>
+  <si>
+    <t>February 2009</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1777,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1809,4411 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>106</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>119</v>
+      </c>
+      <c r="X11" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>127</v>
+      </c>
+      <c r="O12" t="s">
+        <v>106</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" t="s">
+        <v>133</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>156</v>
+      </c>
+      <c r="O17" t="s">
+        <v>133</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" t="s">
+        <v>133</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>167</v>
+      </c>
+      <c r="O19" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>168</v>
+      </c>
+      <c r="X19" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" t="s">
+        <v>173</v>
+      </c>
+      <c r="K20" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20" t="s">
+        <v>175</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>167</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>167</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" t="s">
+        <v>185</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>186</v>
+      </c>
+      <c r="O22" t="s">
+        <v>133</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>193</v>
+      </c>
+      <c r="O23" t="s">
+        <v>194</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24" t="s">
+        <v>197</v>
+      </c>
+      <c r="K24" t="s">
+        <v>198</v>
+      </c>
+      <c r="L24" t="s">
+        <v>199</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>200</v>
+      </c>
+      <c r="O24" t="s">
+        <v>133</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>201</v>
+      </c>
+      <c r="X24" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" t="s">
+        <v>206</v>
+      </c>
+      <c r="K25" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>209</v>
+      </c>
+      <c r="O25" t="s">
+        <v>133</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>201</v>
+      </c>
+      <c r="X25" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>212</v>
+      </c>
+      <c r="J26" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" t="s">
+        <v>214</v>
+      </c>
+      <c r="L26" t="s">
+        <v>215</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>216</v>
+      </c>
+      <c r="O26" t="s">
+        <v>194</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>218</v>
+      </c>
+      <c r="J27" t="s">
+        <v>219</v>
+      </c>
+      <c r="K27" t="s">
+        <v>220</v>
+      </c>
+      <c r="L27" t="s">
+        <v>221</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>222</v>
+      </c>
+      <c r="O27" t="s">
+        <v>133</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>223</v>
+      </c>
+      <c r="X27" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>226</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>227</v>
+      </c>
+      <c r="J28" t="s">
+        <v>228</v>
+      </c>
+      <c r="K28" t="s">
+        <v>229</v>
+      </c>
+      <c r="L28" t="s">
+        <v>230</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>222</v>
+      </c>
+      <c r="O28" t="s">
+        <v>133</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>231</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>232</v>
+      </c>
+      <c r="J29" t="s">
+        <v>233</v>
+      </c>
+      <c r="K29" t="s">
+        <v>234</v>
+      </c>
+      <c r="L29" t="s">
+        <v>235</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>236</v>
+      </c>
+      <c r="O29" t="s">
+        <v>133</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>237</v>
+      </c>
+      <c r="X29" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>239</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>240</v>
+      </c>
+      <c r="J30" t="s">
+        <v>241</v>
+      </c>
+      <c r="K30" t="s">
+        <v>242</v>
+      </c>
+      <c r="L30" t="s">
+        <v>243</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>244</v>
+      </c>
+      <c r="O30" t="s">
+        <v>106</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>237</v>
+      </c>
+      <c r="X30" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>246</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>247</v>
+      </c>
+      <c r="J31" t="s">
+        <v>248</v>
+      </c>
+      <c r="K31" t="s">
+        <v>249</v>
+      </c>
+      <c r="L31" t="s">
+        <v>250</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>244</v>
+      </c>
+      <c r="O31" t="s">
+        <v>133</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>252</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>253</v>
+      </c>
+      <c r="J32" t="s">
+        <v>254</v>
+      </c>
+      <c r="K32" t="s">
+        <v>255</v>
+      </c>
+      <c r="L32" t="s">
+        <v>256</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>257</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>258</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>259</v>
+      </c>
+      <c r="J33" t="s">
+        <v>260</v>
+      </c>
+      <c r="K33" t="s">
+        <v>261</v>
+      </c>
+      <c r="L33" t="s">
+        <v>262</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>257</v>
+      </c>
+      <c r="O33" t="s">
+        <v>133</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>263</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>264</v>
+      </c>
+      <c r="J34" t="s">
+        <v>265</v>
+      </c>
+      <c r="K34" t="s">
+        <v>266</v>
+      </c>
+      <c r="L34" t="s">
+        <v>267</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>257</v>
+      </c>
+      <c r="O34" t="s">
+        <v>133</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>269</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>270</v>
+      </c>
+      <c r="J35" t="s">
+        <v>271</v>
+      </c>
+      <c r="K35" t="s">
+        <v>272</v>
+      </c>
+      <c r="L35" t="s">
+        <v>273</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>274</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>276</v>
+      </c>
+      <c r="J36" t="s">
+        <v>277</v>
+      </c>
+      <c r="K36" t="s">
+        <v>278</v>
+      </c>
+      <c r="L36" t="s">
+        <v>279</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>280</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>281</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>282</v>
+      </c>
+      <c r="J37" t="s">
+        <v>283</v>
+      </c>
+      <c r="K37" t="s">
+        <v>284</v>
+      </c>
+      <c r="L37" t="s">
+        <v>285</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>280</v>
+      </c>
+      <c r="O37" t="s">
+        <v>133</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>286</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>287</v>
+      </c>
+      <c r="J38" t="s">
+        <v>288</v>
+      </c>
+      <c r="K38" t="s">
+        <v>289</v>
+      </c>
+      <c r="L38" t="s">
+        <v>290</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>291</v>
+      </c>
+      <c r="O38" t="s">
+        <v>133</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>292</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>293</v>
+      </c>
+      <c r="J39" t="s">
+        <v>294</v>
+      </c>
+      <c r="K39" t="s">
+        <v>295</v>
+      </c>
+      <c r="L39" t="s">
+        <v>296</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>297</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>298</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>299</v>
+      </c>
+      <c r="J40" t="s">
+        <v>300</v>
+      </c>
+      <c r="K40" t="s">
+        <v>301</v>
+      </c>
+      <c r="L40" t="s">
+        <v>302</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>291</v>
+      </c>
+      <c r="O40" t="s">
+        <v>106</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>303</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>304</v>
+      </c>
+      <c r="J41" t="s">
+        <v>305</v>
+      </c>
+      <c r="K41" t="s">
+        <v>306</v>
+      </c>
+      <c r="L41" t="s">
+        <v>307</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>308</v>
+      </c>
+      <c r="O41" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>309</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>310</v>
+      </c>
+      <c r="J42" t="s">
+        <v>311</v>
+      </c>
+      <c r="K42" t="s">
+        <v>312</v>
+      </c>
+      <c r="L42" t="s">
+        <v>313</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>314</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>316</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>317</v>
+      </c>
+      <c r="J43" t="s">
+        <v>318</v>
+      </c>
+      <c r="K43" t="s">
+        <v>319</v>
+      </c>
+      <c r="L43" t="s">
+        <v>320</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>321</v>
+      </c>
+      <c r="O43" t="s">
+        <v>194</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>322</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>323</v>
+      </c>
+      <c r="J44" t="s">
+        <v>324</v>
+      </c>
+      <c r="K44" t="s">
+        <v>325</v>
+      </c>
+      <c r="L44" t="s">
+        <v>326</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>327</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>328</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>329</v>
+      </c>
+      <c r="J45" t="s">
+        <v>330</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>331</v>
+      </c>
+      <c r="O45" t="s">
+        <v>133</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>332</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>333</v>
+      </c>
+      <c r="J46" t="s">
+        <v>334</v>
+      </c>
+      <c r="K46" t="s">
+        <v>335</v>
+      </c>
+      <c r="L46" t="s">
+        <v>336</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>337</v>
+      </c>
+      <c r="O46" t="s">
+        <v>62</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>338</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>339</v>
+      </c>
+      <c r="J47" t="s">
+        <v>340</v>
+      </c>
+      <c r="K47" t="s">
+        <v>341</v>
+      </c>
+      <c r="L47" t="s">
+        <v>342</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>343</v>
+      </c>
+      <c r="O47" t="s">
+        <v>133</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>344</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>345</v>
+      </c>
+      <c r="J48" t="s">
+        <v>346</v>
+      </c>
+      <c r="K48" t="s">
+        <v>347</v>
+      </c>
+      <c r="L48" t="s">
+        <v>348</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>349</v>
+      </c>
+      <c r="O48" t="s">
+        <v>133</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>350</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>351</v>
+      </c>
+      <c r="J49" t="s">
+        <v>352</v>
+      </c>
+      <c r="K49" t="s">
+        <v>353</v>
+      </c>
+      <c r="L49" t="s">
+        <v>354</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>349</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>355</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>356</v>
+      </c>
+      <c r="J50" t="s">
+        <v>357</v>
+      </c>
+      <c r="K50" t="s">
+        <v>358</v>
+      </c>
+      <c r="L50" t="s">
+        <v>359</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>360</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>361</v>
+      </c>
+      <c r="J51" t="s">
+        <v>362</v>
+      </c>
+      <c r="K51" t="s">
+        <v>363</v>
+      </c>
+      <c r="L51" t="s">
+        <v>364</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>365</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>366</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>367</v>
+      </c>
+      <c r="J52" t="s">
+        <v>368</v>
+      </c>
+      <c r="K52" t="s">
+        <v>369</v>
+      </c>
+      <c r="L52" t="s">
+        <v>370</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>371</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>372</v>
+      </c>
+      <c r="J53" t="s">
+        <v>373</v>
+      </c>
+      <c r="K53" t="s">
+        <v>374</v>
+      </c>
+      <c r="L53" t="s">
+        <v>375</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>376</v>
+      </c>
+      <c r="O53" t="s">
+        <v>62</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>377</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>378</v>
+      </c>
+      <c r="J54" t="s">
+        <v>379</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>376</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>380</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>381</v>
+      </c>
+      <c r="J55" t="s">
+        <v>382</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>383</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>384</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>385</v>
+      </c>
+      <c r="J56" t="s">
+        <v>386</v>
+      </c>
+      <c r="K56" t="s">
+        <v>387</v>
+      </c>
+      <c r="L56" t="s">
+        <v>388</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>389</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>390</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>391</v>
+      </c>
+      <c r="J57" t="s">
+        <v>392</v>
+      </c>
+      <c r="K57" t="s">
+        <v>393</v>
+      </c>
+      <c r="L57" t="s">
+        <v>394</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>395</v>
+      </c>
+      <c r="O57" t="s">
+        <v>194</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>396</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>397</v>
+      </c>
+      <c r="J58" t="s">
+        <v>398</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>399</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>400</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>401</v>
+      </c>
+      <c r="J59" t="s">
+        <v>402</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>403</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>404</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>405</v>
+      </c>
+      <c r="J60" t="s">
+        <v>406</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s">
+        <v>407</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>408</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>410</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>411</v>
+      </c>
+      <c r="J61" t="s">
+        <v>412</v>
+      </c>
+      <c r="K61" t="s">
+        <v>413</v>
+      </c>
+      <c r="L61" t="s">
+        <v>414</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>408</v>
+      </c>
+      <c r="O61" t="s">
+        <v>194</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>415</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>416</v>
+      </c>
+      <c r="J62" t="s">
+        <v>417</v>
+      </c>
+      <c r="K62" t="s">
+        <v>418</v>
+      </c>
+      <c r="L62" t="s">
+        <v>419</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>420</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>422</v>
+      </c>
+      <c r="J63" t="s">
+        <v>423</v>
+      </c>
+      <c r="K63" t="s">
+        <v>424</v>
+      </c>
+      <c r="L63" t="s">
+        <v>425</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>426</v>
+      </c>
+      <c r="O63" t="s">
+        <v>194</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>428</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>429</v>
+      </c>
+      <c r="J64" t="s">
+        <v>430</v>
+      </c>
+      <c r="K64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L64" t="s">
+        <v>432</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>426</v>
+      </c>
+      <c r="O64" t="s">
+        <v>194</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>434</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>435</v>
+      </c>
+      <c r="J65" t="s">
+        <v>436</v>
+      </c>
+      <c r="K65" t="s">
+        <v>437</v>
+      </c>
+      <c r="L65" t="s">
+        <v>438</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>439</v>
+      </c>
+      <c r="O65" t="s">
+        <v>133</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>441</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>442</v>
+      </c>
+      <c r="J66" t="s">
+        <v>443</v>
+      </c>
+      <c r="K66" t="s">
+        <v>444</v>
+      </c>
+      <c r="L66" t="s">
+        <v>445</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>446</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>447</v>
+      </c>
+      <c r="X66" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>450</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>451</v>
+      </c>
+      <c r="J67" t="s">
+        <v>452</v>
+      </c>
+      <c r="K67" t="s">
+        <v>453</v>
+      </c>
+      <c r="L67" t="s">
+        <v>454</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>455</v>
+      </c>
+      <c r="O67" t="s">
+        <v>133</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_462.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_462.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="705">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/11/2018</t>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r598831691-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>56427</t>
+  </si>
+  <si>
+    <t>634878</t>
+  </si>
+  <si>
+    <t>598831691</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>Hot Rooms</t>
+  </si>
+  <si>
+    <t>If you enjoy being cool and comfortable in a hotel room, then stay somewhere else. Our first room would not cool down even after several hours. Normally when you walk into a hotel room, it is nice and cool, but the rooms at this hotel are not. Even the second room they switched us to after we said our a/c was broken was hot. It’s not an a/c problem, it’s a hotel problem! I would not stay here again and if I had booked through the hotel directly, we would have left. The furniture was falling apart and the breakfast, while included, was mediocre at best. I snapped pictures of the furniture in the breakfast area. One positive though about the hotel was they are pet friendly, if you’re a person that travels with animals. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>lq0825, General Manager at La Quinta Inn &amp; Suites Pasadena, responded to this reviewResponded July 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2018</t>
+  </si>
+  <si>
+    <t>If you enjoy being cool and comfortable in a hotel room, then stay somewhere else. Our first room would not cool down even after several hours. Normally when you walk into a hotel room, it is nice and cool, but the rooms at this hotel are not. Even the second room they switched us to after we said our a/c was broken was hot. It’s not an a/c problem, it’s a hotel problem! I would not stay here again and if I had booked through the hotel directly, we would have left. The furniture was falling apart and the breakfast, while included, was mediocre at best. I snapped pictures of the furniture in the breakfast area. One positive though about the hotel was they are pet friendly, if you’re a person that travels with animals. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r593916409-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>593916409</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>Superb</t>
+  </si>
+  <si>
+    <t>Excellent place to stay with the family, especially if you have kids. The food is nice and the attention extremely friendly. Additionally, it is very close to restaurants and stores. Very comfortable.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r588220467-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
-    <t>56427</t>
-  </si>
-  <si>
-    <t>634878</t>
-  </si>
-  <si>
     <t>588220467</t>
   </si>
   <si>
@@ -177,9 +222,6 @@
     <t>June 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>lq0825, General Manager at La Quinta Inn &amp; Suites Pasadena, responded to this reviewResponded June 18, 2018</t>
   </si>
   <si>
@@ -231,6 +273,48 @@
     <t>This hotel is extremely overpriced for the quality of the beds. I booked this hotel because it says he beds are pillow top, comfortable beds. This is far far from the truth. I have not had this problem with La Quinta hotels in the past and expected much better from this hotel. If you’re looking for a good nights sleep, this is not your hotel. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r582119715-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>582119715</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>Hotel on the decline</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel several times in past years while attending the Pasadena Strawberry Festival.  This will be the last time we stay here.  The A/C did not work the first night and worked poorly the second night.  The shower curtain rod was collapsing allowing the curtain rod to slide together and water to escape the shower area and spread all over the floor.  The nozzle to direct the water to the shower head was stuck and barely moved so there was very bad water pressure from the shower head.  While expressing concerns to the front desk another customer commented on the cockroaches they had in their room.    This was once a really nice and economical hotel.  Still economical but not so nice any more.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel several times in past years while attending the Pasadena Strawberry Festival.  This will be the last time we stay here.  The A/C did not work the first night and worked poorly the second night.  The shower curtain rod was collapsing allowing the curtain rod to slide together and water to escape the shower area and spread all over the floor.  The nozzle to direct the water to the shower head was stuck and barely moved so there was very bad water pressure from the shower head.  While expressing concerns to the front desk another customer commented on the cockroaches they had in their room.    This was once a really nice and economical hotel.  Still economical but not so nice any more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r575555213-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>575555213</t>
+  </si>
+  <si>
+    <t>04/24/2018</t>
+  </si>
+  <si>
+    <t>Both TVs not working, and phone system down</t>
+  </si>
+  <si>
+    <t>Usually stay at La Quinta,  have for years.  Have several more nights already reserved across the US.  Found this problem very perplexing due to the time factor and the inability to correct quickly.  The fact that I had to dress and go to the office to notify the staff and 12 midnight, made the entire process upsetting, and then did not get it corrected.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r573878118-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -246,9 +330,6 @@
     <t>I've been waking up hot at my last few stays at La Quinta and couldn't figure out why.  Found out they do not give you full control of the AC thermostat...and EVEN shut if off on you at night with NO control to turn it back on! It spoiled my sleep and didn't have a good day afterwards! I called the front desk and NO answer each time!MoreShow less</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
     <t>lq0825, General Manager at La Quinta Inn &amp; Suites Pasadena, responded to this reviewResponded May 10, 2018</t>
   </si>
   <si>
@@ -294,6 +375,63 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r537980439-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>537980439</t>
+  </si>
+  <si>
+    <t>11/02/2017</t>
+  </si>
+  <si>
+    <t>Rooms for mom while flood damage was repaired</t>
+  </si>
+  <si>
+    <t>Reserved a room here for my mother while he condo as being repaired.  She was flooded as a result of Harvey.  She stayed three nights.  Overall, I think it was a good experience.  However, we reserved and accessible room because she is elderly (82) but they did not have one when she checked in.  Not a huge issue, but if you are going to allow a reservation for an accessible room it should be available.  She loved the breakfast.  The room was clean and comfortable; although, she thought the beds might need updating.  Rooms were quiet and parking was easy and plentiful.Overall, she recommends.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>lq0825, General Manager at La Quinta Inn &amp; Suites Pasadena, responded to this reviewResponded December 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2017</t>
+  </si>
+  <si>
+    <t>Reserved a room here for my mother while he condo as being repaired.  She was flooded as a result of Harvey.  She stayed three nights.  Overall, I think it was a good experience.  However, we reserved and accessible room because she is elderly (82) but they did not have one when she checked in.  Not a huge issue, but if you are going to allow a reservation for an accessible room it should be available.  She loved the breakfast.  The room was clean and comfortable; although, she thought the beds might need updating.  Rooms were quiet and parking was easy and plentiful.Overall, she recommends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r520388643-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>520388643</t>
+  </si>
+  <si>
+    <t>09/01/2017</t>
+  </si>
+  <si>
+    <t>La Quinta</t>
+  </si>
+  <si>
+    <t>We had to leave our home because of a water leak in our kitchen.  We had no problem getting a reservation and were lucky to have one as Hurricane Harvey hit our area the next day.  We were so happy to find a quality hotel close to home that takes pets.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care  at La Quinta Inn &amp; Suites Pasadena, responded to this reviewResponded September 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2017</t>
+  </si>
+  <si>
+    <t>We had to leave our home because of a water leak in our kitchen.  We had no problem getting a reservation and were lucky to have one as Hurricane Harvey hit our area the next day.  We were so happy to find a quality hotel close to home that takes pets.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r520084131-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -309,15 +447,6 @@
     <t>My family and I, including our 3 year old son were exposed in the flood and walked into the lobby of this hotel soaking wet. Shannon made sure we had everything we needed and we appreciated her excellent customer service skills. Jose tended to us during the stay as well and he was very caring, compassionate and informative. We are forever grateful for this crew and the service we received. MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
-    <t>LQ Customer Car... T, LQ Customer Care  at La Quinta Inn &amp; Suites Pasadena, responded to this reviewResponded September 2, 2017</t>
-  </si>
-  <si>
-    <t>Responded September 2, 2017</t>
-  </si>
-  <si>
     <t>My family and I, including our 3 year old son were exposed in the flood and walked into the lobby of this hotel soaking wet. Shannon made sure we had everything we needed and we appreciated her excellent customer service skills. Jose tended to us during the stay as well and he was very caring, compassionate and informative. We are forever grateful for this crew and the service we received. More</t>
   </si>
   <si>
@@ -336,15 +465,6 @@
     <t>Staff was great, hotel was very clean but the beds/pillows were extremely firm and the toilet was very short.  An upgrade in mattress and pillow quality would be great and a plumbing re-fit with adult height toilets would make the experience excellent.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>lq0825, General Manager at La Quinta Inn &amp; Suites Pasadena, responded to this reviewResponded December 20, 2017</t>
-  </si>
-  <si>
-    <t>Responded December 20, 2017</t>
-  </si>
-  <si>
     <t>Staff was great, hotel was very clean but the beds/pillows were extremely firm and the toilet was very short.  An upgrade in mattress and pillow quality would be great and a plumbing re-fit with adult height toilets would make the experience excellent.More</t>
   </si>
   <si>
@@ -357,6 +477,42 @@
     <t>08/03/2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r500022240-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>500022240</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>It was very nice an comfortable. Love it every time I stay. Thank you so much for everything that you do. Have a nice da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you so much for your services. I will be back very soon. It is very clean and relaxing in the room. We will definitely be back for more stays. Haven't used the pool yet but have been wanting to. </t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r491658714-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>491658714</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel / unfriendly staff</t>
+  </si>
+  <si>
+    <t>Nice hotel but the staff was not friendly.  The the beds were nice and comfortable and the room was clean and well maintained.  The pool area was very clean and the morning breakfast was nice. I would stay at this hotel again if I could not find any other hotel to say at.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r491658596-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -372,9 +528,6 @@
     <t>I went down to this area to attend my son's wedding.I usually stay at La Quinta because of their pet policy. A friend recommended this one. The room was large and not too expensive. I was well pleased with everything thereMoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>lq0825, General Manager at La Quinta Inn &amp; Suites Pasadena, responded to this reviewResponded June 22, 2017</t>
   </si>
   <si>
@@ -417,7 +570,34 @@
     <t>I had the pleasure of staying a the La Quinta in Pasadena off of belt way and Vista the staff at this location are very friendly and knowledgeable of the area.  If you need help locating a please they are always very willing to help you.  They great you with a smile and house keeping is very willing to help in any way they can. I would recommend this location with our reservation.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r465472069-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>465472069</t>
+  </si>
+  <si>
+    <t>03/07/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenient. Friendly. Clean </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When I'm in Pasadena on a work trip this is my go to hotel. The front desk personnel are always extremely polite and helpful. They are all very familiar with the area so their suggestions are always on point. I like how this hotel is very close to the freeway and is easily accessible. The rooms are always clean!! </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r447779082-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>447779082</t>
+  </si>
+  <si>
+    <t>12/30/2016</t>
+  </si>
+  <si>
+    <t>December 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r425541972-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
@@ -471,6 +651,39 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r385993915-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>385993915</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t>one night stay</t>
+  </si>
+  <si>
+    <t>Great service.  Very clean. Front desk person went extra mile to see if my moms first Alert had been left in our room after we had returned home.  Maid service had yet to clean room but the person went to personally check the room,  We later found the First alert at home.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r385462003-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>385462003</t>
+  </si>
+  <si>
+    <t>06/18/2016</t>
+  </si>
+  <si>
+    <t>Rescue</t>
+  </si>
+  <si>
+    <t>I lost power to my house due to the heat.  LaQuinta was there to save my day in my home town just like they are when I'm on the road traveling.  Thanks to the staff at this facility, I was made welcome and comfortable as always.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r383459437-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -486,9 +699,6 @@
     <t>I've spent time at plenty of the LaQuinta locations and this one is close to the bottom of the pack.  Pillowtop beds???  NOT.  Breakfast???  Least choices I've ever seen at an LQ.  Walls are thin and the music from the parking lot late at night is loud. Customer service was dependent on the person--one not so good and one very good.  The facility just doesn't seem to get the attention it needs, either in maintenance or housekeeping.Go somewhere else...</t>
   </si>
   <si>
-    <t>June 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r382066287-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -531,6 +741,42 @@
     <t>Honestly I don't think I have stayed in a worst hotel for the money spent. Wasn't expecting anything spectacular for the price we paid, however, the hotel was dirty, the pool disgusting, the overhead lighting in the rooms was terrible and the staff was barely adequate. Add in the fact that the hotel rooms felt like a college dorm which was hastily repainted and fixed up. You could see the terrible paint job, the bad fixes, and the room had a feel of just dirt.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r370582633-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>370582633</t>
+  </si>
+  <si>
+    <t>Not clean. Not comfortable.</t>
+  </si>
+  <si>
+    <t>Room appears clean at first glance. The once the bathroom floor got some condensation on it after a shower it was covered in long black hairs. Not so good. Bed was uncomfortable. The pillows were far too thick and hard as rock. Neck pain was inevitable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Reagan H, General Manager at La Quinta Inn &amp; Suites Pasadena, responded to this reviewResponded May 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2016</t>
+  </si>
+  <si>
+    <t>Room appears clean at first glance. The once the bathroom floor got some condensation on it after a shower it was covered in long black hairs. Not so good. Bed was uncomfortable. The pillows were far too thick and hard as rock. Neck pain was inevitable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r368402568-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>368402568</t>
+  </si>
+  <si>
+    <t>04/28/2016</t>
+  </si>
+  <si>
+    <t>Not worth the money with so many other options</t>
+  </si>
+  <si>
+    <t>I travel for business and stay in hotels 3 nights a week. The La Quinta Pasadena would be a hotel I would stay another night at.  It's not that anythign was terrible. But nothing was good either. The check in process was ok. After Jose got up and took his ear buds out.  They do not allow you to charge items to your rooma nd do not supply the typical items (tooth brush, razor, etc...) other hotels in the class offer, The morning breakfast was underwellming and had bugs in the bread box.  Overall would not come back</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r364294951-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -582,6 +828,41 @@
     <t>We had reserved a room with a La Quinta about 15 minutes away from this one (since we are traveling with our dog we always stay at la quintas) and when we arrived the hotel was old and packed with no parking for our truck and trailer. We were staying 3 nights,and i found this La Quinta quickly after arrival at the original.Asked the Manager if she could call this one and see if they had any open rooms at a good rate. They got us close to the same price with the same room even though all rooms were almost booked,and when we arrived they had put us in a room that overlooked the parking lot so we could keep an eye on our rig which was AWESOME! The hotel had been recently remodeled and was VERY nice.It was a very quiet and peaceful hotel. After a 25 hour trip from Florida, our dog loved being able to roam around the spacious room and roll around on the bed.10/10 would stay here again! Also close to food but staying out of the busyness.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r355659521-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>355659521</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Not what we were expecting, too pet friendly</t>
+  </si>
+  <si>
+    <t>Traveling from Florida to Nevada with cats and a kid pulling a trailer, we are looking for clean, convenient, fast, with parking. The hotel was clean. Check-in was fast. Parking was a challenge with a trailer. They have limited spots and the property is elevated from the road, so this caused us issues as well.  We signed a pet deposit for any damages, but the room was not pet designated in my opinion. 
+A moment about pet policies:  I prefer pet rooms that have been clearly set aside for those of us with pets, cables are hidden or mounted, beds are secure underneath so pets can not hide or climb, there is no bed cover at the foot of the bed and the room is set aside or apart from other guests. It makes it easier for pet owners to keep things controlled and the pets are free to roam. My husband is allergic to animals, so we are A-typical owners, thinking of both the pets and how to keep them from other guests. This room was like all the others, no separate pet accomodation. The bed frame was broken and so the cats were able to get underneath and hide. Not only do I have to now retrieve them but wipe surfaces to remove any potential dander. I don't travel often with my cats and La Quinta may not be a match for our needs. La Quinta clearly states...Traveling from Florida to Nevada with cats and a kid pulling a trailer, we are looking for clean, convenient, fast, with parking. The hotel was clean. Check-in was fast. Parking was a challenge with a trailer. They have limited spots and the property is elevated from the road, so this caused us issues as well.  We signed a pet deposit for any damages, but the room was not pet designated in my opinion. A moment about pet policies:  I prefer pet rooms that have been clearly set aside for those of us with pets, cables are hidden or mounted, beds are secure underneath so pets can not hide or climb, there is no bed cover at the foot of the bed and the room is set aside or apart from other guests. It makes it easier for pet owners to keep things controlled and the pets are free to roam. My husband is allergic to animals, so we are A-typical owners, thinking of both the pets and how to keep them from other guests. This room was like all the others, no separate pet accomodation. The bed frame was broken and so the cats were able to get underneath and hide. Not only do I have to now retrieve them but wipe surfaces to remove any potential dander. I don't travel often with my cats and La Quinta may not be a match for our needs. La Quinta clearly states all small animals are always welcome. So to those with allergies beware. So far this trip we have stayed in 3 pet-friendly hotels and this was the only one my husband had a hard time with allergy-wise because it was not designed as 'easy to clean' from guest/pet to guest/pet. This has nothing to do with the cleaning staff, we feel they did a good job, but like our house, you have to plan for animals, not just pick a room off the map randomly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Traveling from Florida to Nevada with cats and a kid pulling a trailer, we are looking for clean, convenient, fast, with parking. The hotel was clean. Check-in was fast. Parking was a challenge with a trailer. They have limited spots and the property is elevated from the road, so this caused us issues as well.  We signed a pet deposit for any damages, but the room was not pet designated in my opinion. 
+A moment about pet policies:  I prefer pet rooms that have been clearly set aside for those of us with pets, cables are hidden or mounted, beds are secure underneath so pets can not hide or climb, there is no bed cover at the foot of the bed and the room is set aside or apart from other guests. It makes it easier for pet owners to keep things controlled and the pets are free to roam. My husband is allergic to animals, so we are A-typical owners, thinking of both the pets and how to keep them from other guests. This room was like all the others, no separate pet accomodation. The bed frame was broken and so the cats were able to get underneath and hide. Not only do I have to now retrieve them but wipe surfaces to remove any potential dander. I don't travel often with my cats and La Quinta may not be a match for our needs. La Quinta clearly states...Traveling from Florida to Nevada with cats and a kid pulling a trailer, we are looking for clean, convenient, fast, with parking. The hotel was clean. Check-in was fast. Parking was a challenge with a trailer. They have limited spots and the property is elevated from the road, so this caused us issues as well.  We signed a pet deposit for any damages, but the room was not pet designated in my opinion. A moment about pet policies:  I prefer pet rooms that have been clearly set aside for those of us with pets, cables are hidden or mounted, beds are secure underneath so pets can not hide or climb, there is no bed cover at the foot of the bed and the room is set aside or apart from other guests. It makes it easier for pet owners to keep things controlled and the pets are free to roam. My husband is allergic to animals, so we are A-typical owners, thinking of both the pets and how to keep them from other guests. This room was like all the others, no separate pet accomodation. The bed frame was broken and so the cats were able to get underneath and hide. Not only do I have to now retrieve them but wipe surfaces to remove any potential dander. I don't travel often with my cats and La Quinta may not be a match for our needs. La Quinta clearly states all small animals are always welcome. So to those with allergies beware. So far this trip we have stayed in 3 pet-friendly hotels and this was the only one my husband had a hard time with allergy-wise because it was not designed as 'easy to clean' from guest/pet to guest/pet. This has nothing to do with the cleaning staff, we feel they did a good job, but like our house, you have to plan for animals, not just pick a room off the map randomly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r352779233-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>352779233</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>The La Quinta at Pasadena on Vista is very friendly, clean, and the employees are always willing to help great place to stay.  It is centrally located with easy access to freeways, Restaurants, and shopping  George</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r343239049-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -651,6 +932,39 @@
     <t>I stayed in room 114 there was paint splatter all over the bathroom. There was hair in the tub and toilet ran continuously thru the night. The cabinet under the bathroom sink was broken and pulled out from under sink, the baseboards under the cabinet were broken and laying on the floor. The TV's kept losing signal off and on through out the stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r321014192-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>321014192</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised</t>
+  </si>
+  <si>
+    <t>The common areas were clean and well maintained. Rooms were spacious. Lots of fluffy pillows. Mattress was comfortable and ac worked well. We missed breakfast , but attendant offered to get us some yogurt and pastries. Very accomodating.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r319220213-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>319220213</t>
+  </si>
+  <si>
+    <t>10/08/2015</t>
+  </si>
+  <si>
+    <t>Class Reunion</t>
+  </si>
+  <si>
+    <t>This is the  fourth year we have spent the night in this LaQuinta.  My wife attends her High School class reunion each October.  She graduated in 1954 from Pasadena  TX  High School.  The  reunion is on a Saturday (Lunch).  On the prior Friday night we gather for Dinner  at the Monument Inn (near the Linchburg Ferry crossing). This is also a recommended place for dining, crowded on weekends.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r316756531-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -666,9 +980,6 @@
     <t>Excellent professional service.  I have used this same location for the past 5 years and every time I receive the best of friendly, customer service.  I am very pleased with all the staff assigned to the hotel in Pasadena.</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r303579819-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -711,6 +1022,39 @@
     <t>This hotel was a perfect location for proximity of our meeting facility and the company headquarters.  Very good access in and out for traveling to and from meeting facility and company office.  Also provided all extras for relaxation, fitness, and business purposes.  Looked to be a great fit for a family vacation, also.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r300099432-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>300099432</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t>The best out of 3</t>
+  </si>
+  <si>
+    <t>I stayed at two motel hell's  until I got to this piece of heaven. There was more than enough room. Staff were pleasant and helpful. I had an incident with vending machine and they were prompt and helpful.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r297045522-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>297045522</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>Excellent Stay!!!!</t>
+  </si>
+  <si>
+    <t>I checked in around 5:00pm 8 Aug and the lady behind the counter was very good.  She helped with any questions I had, treated me great, and had a very professional attitude and a can do attitude.  She made the stay that much better.  Rooms were great,  truly enjoyed me stay.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r291214474-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -726,9 +1070,6 @@
     <t>Jenna at the front desk is extremely rude I called for availability and right off the back the rudeness started how can la Quinta employ people like her Don't u guys do interviews or check on your employees. Extremely disappointed I will take my business elsewhereMoreShow less</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t>lq0825, General Manager at La Quinta Inn &amp; Suites Pasadena, responded to this reviewResponded September 15, 2015</t>
   </si>
   <si>
@@ -774,6 +1115,36 @@
     <t>This was a nice quiet hotel, with very nice staff. It has the typical LQ breakfast which includes hard boiled eggs and I appreciate that. Even though there were a lot of kids and dogs in the hotel for the Memorial weekend it was still nice and quiet. I had a nice king bed suite and enjoyed the space. Having a microwave and a fridge is so handy and allowed me to have some of my favorite drinks and foods while there, like nighttime popcorn with a glass of wine. The only drawback was the mattress. It was awful, hard as a rock. The first night, I felt like my body had been rolled around on rocks. The second night I tried taking the cushions from the couch and chair and lining those up on the bed and sleeping on them, but that was tough to stay on. On the last night of my stay, I just took all the bed pillows, laid those down and put a cover over them and slept on that. That was the best plan. Hopefully they'll be getting some new mattresses before I have to work in that location again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r269735687-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>269735687</t>
+  </si>
+  <si>
+    <t>05/03/2015</t>
+  </si>
+  <si>
+    <t>A Nice Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is my second stay at this hotel and I feel a review coming on. A very nice hotel, a bit older and it has seen a few people go through. The staff is what really make this establishment. Super friendly and courteous as very helpful indeed. The rooms are very comfortable but the age of the hotel peeks through every now and then. The continental breakfast is awesome. From 6 - 9 am and the variety is impressive as well as the  taste. Would I come back? Most definitely. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r267656176-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>267656176</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>This hotel was very clean and the location was very convenient for the trip we were taking.  The desk clerk was friendly and gave us great directions to our next destination.  The check out was easy and I would return to this destination if I am in this area again.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r263352671-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -825,6 +1196,42 @@
     <t>Stayed here for 2 nights. I stayed in 2 different rooms both were very nice and clean, very modern looking.the upgraded rooms are pretty  big with a separate bedroom and living room area.The internet here was EXTREMELY SLOW. Trying to do any online business work was very hard. I Do not recommend this hotel if you need to do work online!I also tried using their business center pc thinking maybe their wifi router was just flooded but same thing.  The computer also didn't have a program to open pdf's and was locked so you can't install one.My first rooms (215) ac was Making a loud squeeling noise at night so I changed rooms my second day.The shower did get nice and hot but there is a slight musty smell coming from the water. At first I thought it was just the first room but I noticed the smell in the seccond room as well.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r262859068-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>262859068</t>
+  </si>
+  <si>
+    <t>03/01/2015</t>
+  </si>
+  <si>
+    <t>Staff friendly; good breakfast; rooms okay</t>
+  </si>
+  <si>
+    <t>The decor at this hotel is modern and updated. My room needed maintenance. The walls and door frames are a bit beaten up. The hair dryer did not work. The air conditioner worked very well. The bedspreads are white, so no hidden dirt. The beds and pillows were comfortable. The toilet did not flush well. The water pressure in the shower was fantastic. The breakfast was good. There were eggs, meat and waffles in addition to toast, muffins, donuts, pastries and hard boiled eggs. The hotel staff was very friendly and helpful. The television lost its signal one night and still had not come back on when we left in the morning. The internet was not working one morning for several hours.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>The decor at this hotel is modern and updated. My room needed maintenance. The walls and door frames are a bit beaten up. The hair dryer did not work. The air conditioner worked very well. The bedspreads are white, so no hidden dirt. The beds and pillows were comfortable. The toilet did not flush well. The water pressure in the shower was fantastic. The breakfast was good. There were eggs, meat and waffles in addition to toast, muffins, donuts, pastries and hard boiled eggs. The hotel staff was very friendly and helpful. The television lost its signal one night and still had not come back on when we left in the morning. The internet was not working one morning for several hours.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r258201561-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>258201561</t>
+  </si>
+  <si>
+    <t>02/28/2015</t>
+  </si>
+  <si>
+    <t>Pasadena Beltway Hotel</t>
+  </si>
+  <si>
+    <t>Good location. Nice rooms. Not very attentive service personnel.  Hot tub not operable when was requested in pre-arrival request. Would have sought different hotel for operable hot tub.  Breakfast was not attended to due to lack of hot water for tea or oatmeal.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r251165272-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -876,6 +1283,42 @@
     <t>Everyone was friendly as soon as I walked in the door, each morning and evening there hello's and good bye's.  Nothing negative to say about the stay. Plenty of places to visit from this area and great food all around.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r243028869-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>243028869</t>
+  </si>
+  <si>
+    <t>12/01/2014</t>
+  </si>
+  <si>
+    <t>Family trip</t>
+  </si>
+  <si>
+    <t>Vomit on bathroom floor,and into drain. Bed not made up,something on the sheets. Lack of housekeeper to fix the problem Jumping  on and off beds,till 11pm. Front desk did call their room. Manager should have been called. Totally expect to get my bag. Would appreciate forwarding the bill.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Vomit on bathroom floor,and into drain. Bed not made up,something on the sheets. Lack of housekeeper to fix the problem Jumping  on and off beds,till 11pm. Front desk did call their room. Manager should have been called. Totally expect to get my bag. Would appreciate forwarding the bill.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r241801092-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>241801092</t>
+  </si>
+  <si>
+    <t>11/23/2014</t>
+  </si>
+  <si>
+    <t>LQ Pasadena</t>
+  </si>
+  <si>
+    <t>Major section of Beltway 8 near this motel is EZ TAG only making this location less desirable.  The Wi-Fi was extremely slow and intermittently disconnected making it unsuitable for business.  The AC/heater unit was so noisy I could not run it and sleep.  The PC in the common area did not work and I could not use it to print.  2 out of 3 pieces of exercise equipment did not work.  Mattress was old, too soft and springs squeaked.  Hot was luke warm, low pressure.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r240953783-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -891,9 +1334,6 @@
     <t xml:space="preserve">Had a nice stay. We were only here for one night. The gentlemen that checked us in, was super nice. He helped me take care of some business.  I would definitely come here again. We are on the front side of the building &amp; you can here the traffic outside. So if your a lite sleeper, you may want to request a room on the back side of the hotel. It may be more quiet there. Landscaping outside was beautiful. They offered a nice breakfast but didn't have the Texas shaped waffle, I had at another La Quinta.  =( </t>
   </si>
   <si>
-    <t>November 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r239117090-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -927,6 +1367,42 @@
     <t>This hotel met all my expectations for a clean, reasonably priced place to stay.  THe staff was friendly and helpful and the hotel was quite nice.  It's a good bonus that they have free breakfast and actually have a variety of food available too.  PLUS they are pet friendly.  Perfect for us.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r229721209-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>229721209</t>
+  </si>
+  <si>
+    <t>09/13/2014</t>
+  </si>
+  <si>
+    <t>Very Nice Accommodations</t>
+  </si>
+  <si>
+    <t>We had a pipe leak in a bedroom in our home and had to move out while our floors were being refinished. We loved this hotel because: It was clean, personnel was very friendly and professional, they allowed dogs, they accommodated our room to hold a family members hospital bed.  This hotel was also close to our home so that we could return to conduct business with the contractors who did the repairs.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r224210118-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>224210118</t>
+  </si>
+  <si>
+    <t>08/24/2014</t>
+  </si>
+  <si>
+    <t>Cockroaches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did visit this hotel on August 23rd and the 24th.  Rooms are set in a good position and are with 2 tv's . First near the bed and the other in the sitting area. First was fine . No problem.  2nd night however and had to kill 3 cockroaches in an hour.  That was enough for me . So the rest of the night I slept in my big rig since I am a truck driver.  So sorry for this hotel . But no more for me over here. </t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r222290248-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -942,9 +1418,6 @@
     <t>This is a modern property in a convenient location off of Beltway 8. Front desk was very friendly. My king room was large with a separate living area with couch, chair and a second TV. Bathroom was also large and updated. My only negative comment is that I found the bed to be quite hard, I am used to sleeping on a pillow top mattress. Had the bed been more comfy, I would have rated 4 stars. This property is a good value.</t>
   </si>
   <si>
-    <t>August 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r211953983-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -984,6 +1457,42 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r203410869-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>203410869</t>
+  </si>
+  <si>
+    <t>04/29/2014</t>
+  </si>
+  <si>
+    <t>2nd Division Adjutant</t>
+  </si>
+  <si>
+    <t>I am with The American Legion Department of Texas. We held our Division Convention in Pasadena. We all were well received by your Hotel staff. Thank you.   Now, this review just got annoying with your 200 characters mimimum in red.  The coffee was cold. The Hard Boiled eggs were cold.   In my room 302 there was dried sparkle fingernail polish on the counter and floor. There was only one trash can in the room. Only 1 serving of coffee per room. No tea.   I hope this is 200 characters.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r203680180-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>203680180</t>
+  </si>
+  <si>
+    <t>04/28/2014</t>
+  </si>
+  <si>
+    <t>Best Hotel Experience</t>
+  </si>
+  <si>
+    <t>I have been coming to the Pasadena area over the past 5 months and have stayed in two other hotels before staying in this one.  I was not at all happy with the other ones. That being said I asked my girlfriend to check out this hotel to see what is what like before booking.  She was amazed at Sue who was friendly and courteous and extremely helpful.  Once I arrived our room was ready and we checked in.  The room was amazing.  Laura Sue and Josie were the best and were extremely helpful in catering to any needs that we may have had.  This hotel is well worth the money and the amazing staff the cleanliness and hospitality are all well worth the money and to stay any and every time I come back.  I will be staying here no matter what.  No other hotel brand exist to me at this point.  THANK YOU !!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I have been coming to the Pasadena area over the past 5 months and have stayed in two other hotels before staying in this one.  I was not at all happy with the other ones. That being said I asked my girlfriend to check out this hotel to see what is what like before booking.  She was amazed at Sue who was friendly and courteous and extremely helpful.  Once I arrived our room was ready and we checked in.  The room was amazing.  Laura Sue and Josie were the best and were extremely helpful in catering to any needs that we may have had.  This hotel is well worth the money and the amazing staff the cleanliness and hospitality are all well worth the money and to stay any and every time I come back.  I will be staying here no matter what.  No other hotel brand exist to me at this point.  THANK YOU !!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r200411874-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -999,9 +1508,6 @@
     <t>Great room and excellent Handicap accessibility which is important for me as I'm in a wheelchair....The Staff were very nice and friendly. Breakfast was better than most others. I will stay at this Hotel again.</t>
   </si>
   <si>
-    <t>April 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r193502655-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -1032,6 +1538,42 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r184426054-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>184426054</t>
+  </si>
+  <si>
+    <t>11/11/2013</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>I have stayed in a lot of Hotels and since I have been here I have had the best customer service since check in. Sue was working at the time and was most pleasant as I have been here I have seen Top-Notch Customer service with everyone that has come in. Sue has been amazing and I will for sure stay here again when in the area.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r175572918-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>175572918</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>I travel a lot for business and although it was a little further away than I care to be, it was a refreshing change-of-pace to have a clean and quiet place to rest and relax after a tough day on the job site.  Another pleasant surprise was that it was less than 10 minutes from the Airport (Houston-Hobby) without having to get on any of Houston's freeways.  Not a lot of dining selections close by (5 minute drive) but there is an abundance of selections within a 15-20 minute drive.  I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r173837520-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -1083,6 +1625,39 @@
     <t xml:space="preserve">Our first stay at La Quinta and quite nice.  Everything was very satisfactory from the time of making reservation to checkout time.  Breakfast was very nice, variety excellent and service was very good.  </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r167461211-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>167461211</t>
+  </si>
+  <si>
+    <t>07/13/2013</t>
+  </si>
+  <si>
+    <t>So close to everything</t>
+  </si>
+  <si>
+    <t>We chose to stay here as the hotel is so close to everything. Lots of choice for eating out with every food type available. Only 20 mins to The Space Center at Clear Lake and much cheaper than the hotels there too! The rooms were spacious and clean with failrly quiet fridge air con and fan which is a bonus.  There was no outside noise at all even though the hotel is on a busy road.  There is noise from people walking in the rooms upstairs so book a second floor room for a quiet night.The pool is small but very well looked after and clean.  Very welcoming after a long hot day.Staff were really helpful and found room for us to stay an additional night even though they were very full.  They even arranged for us to stay in our same room.  MoreShow less</t>
+  </si>
+  <si>
+    <t>We chose to stay here as the hotel is so close to everything. Lots of choice for eating out with every food type available. Only 20 mins to The Space Center at Clear Lake and much cheaper than the hotels there too! The rooms were spacious and clean with failrly quiet fridge air con and fan which is a bonus.  There was no outside noise at all even though the hotel is on a busy road.  There is noise from people walking in the rooms upstairs so book a second floor room for a quiet night.The pool is small but very well looked after and clean.  Very welcoming after a long hot day.Staff were really helpful and found room for us to stay an additional night even though they were very full.  They even arranged for us to stay in our same room.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r166900721-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>166900721</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>Great hotel for a reasonable price</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for more than a week while visiting relatives in the area.  The rooms were clean and recently updated, bathrooms were spacious and very clean.  The beds were comfortable and the front desk staff was overwhelmingly nice and helpful.  The breakfast is good, but it's continental so choices are limited.  There's an Ihop next door and a Mornings Kolaches down the street, so problem solved.  We will stay here again for sure!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r166479609-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -1131,6 +1706,42 @@
     <t>Best La Quinta hotel I ever stayed in. When I booked this hotel I was thinking it would be a regular La Quinta but this hotel is really beautiful. My last experience with a La Quinta hotel was horrible and I said to myself I would never stay in another one but this hotel here changed my mind. So when ever your Pasadena stay here you will enjoy your stay.Trust me.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r165311998-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>165311998</t>
+  </si>
+  <si>
+    <t>06/26/2013</t>
+  </si>
+  <si>
+    <t>Pretty Great location, currently renovating, breakfast bad</t>
+  </si>
+  <si>
+    <t>We booked for a weekend stay for a High School reunion and had a good experience. They put us on the 3rd floor in a mini suit (like many hotels now have). They are in the midst of a renovation/redecorating project and our room wasn't yet complete. The shower bar was barely hanging on and the mirror had been replaced showing the old glue spots from the previous mirror. Squeakiest bed I've ever slept on, but it was comfortable.The site is 100% non smoking, which is great, but apparently our floor mates didn't believe the signs.Breakfast was not good, precooked egg thingies (yuck), undercooked sausage (that was probably the reason for the upset stomachs that afternoon), everything else was just sweets. Boiled eggs were OK. The second morning we didn't risk it.Curb appeal was bad, if I hadn't booked over the phone after checking online reviews I wouldn't have done more than slow down. Outside the grass and landscape needed much attention, I know it rains a lot there and the grass needs mowed often...no excuse. Huge pile of cardboard in the grass at the end of the parking lot. Would rather have seen a dumpster. Parking lot is a little small, not sure there are actually enough spaces for when they are full.Overall not bad, but it could have been great.MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked for a weekend stay for a High School reunion and had a good experience. They put us on the 3rd floor in a mini suit (like many hotels now have). They are in the midst of a renovation/redecorating project and our room wasn't yet complete. The shower bar was barely hanging on and the mirror had been replaced showing the old glue spots from the previous mirror. Squeakiest bed I've ever slept on, but it was comfortable.The site is 100% non smoking, which is great, but apparently our floor mates didn't believe the signs.Breakfast was not good, precooked egg thingies (yuck), undercooked sausage (that was probably the reason for the upset stomachs that afternoon), everything else was just sweets. Boiled eggs were OK. The second morning we didn't risk it.Curb appeal was bad, if I hadn't booked over the phone after checking online reviews I wouldn't have done more than slow down. Outside the grass and landscape needed much attention, I know it rains a lot there and the grass needs mowed often...no excuse. Huge pile of cardboard in the grass at the end of the parking lot. Would rather have seen a dumpster. Parking lot is a little small, not sure there are actually enough spaces for when they are full.Overall not bad, but it could have been great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r163862094-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>163862094</t>
+  </si>
+  <si>
+    <t>06/13/2013</t>
+  </si>
+  <si>
+    <t>It could have gone very badly but didn't.</t>
+  </si>
+  <si>
+    <t>I booked two days of the conference room at La Quinta Pasadena and two days before I was to arrive I received a call that the conference room may not be available. I tried not to go into panic mode and held on to hope. A lot of coordination went into planning the meeting and the last thing I needed was to change the venue. The day before I was to arrive I was called and told the conference room would definitely not be available. Luckily, the Pasadena staff had a back up plan and also helped me find another conference room in case the back up plan didn't work. Long story short, the Pasadena staff worked hard to put together a meeting room in one of their suites. They graciously and quickly handled all of my requests including stopping the contractors from drilling and hammering while my meetings were in progress. It was excellent customer service given the circumstances. MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked two days of the conference room at La Quinta Pasadena and two days before I was to arrive I received a call that the conference room may not be available. I tried not to go into panic mode and held on to hope. A lot of coordination went into planning the meeting and the last thing I needed was to change the venue. The day before I was to arrive I was called and told the conference room would definitely not be available. Luckily, the Pasadena staff had a back up plan and also helped me find another conference room in case the back up plan didn't work. Long story short, the Pasadena staff worked hard to put together a meeting room in one of their suites. They graciously and quickly handled all of my requests including stopping the contractors from drilling and hammering while my meetings were in progress. It was excellent customer service given the circumstances. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r162856632-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -1167,7 +1778,34 @@
     <t>04/29/2013</t>
   </si>
   <si>
-    <t>April 2013</t>
+    <t>Nice Place to Stay</t>
+  </si>
+  <si>
+    <t>Hotel was nice and clean, looked fairly new. Would stay there again if ever in the area. Wished I had brought my own pillow because theirs were a little lumpy and I'm particular about my pillow. Good price considering it included breakfast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r158143608-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>158143608</t>
+  </si>
+  <si>
+    <t>04/18/2013</t>
+  </si>
+  <si>
+    <t>Clean and Quiet - Great Breakfast</t>
+  </si>
+  <si>
+    <t>We had to stay here for a funeral.  We arrived late but had called ahead and had no trouble checking in.  Our room was clean.  It was nice that they had a fridge and microwave - we were able to eat leftovers from dinner.  This was a good facility for an average type hotel room.  The breakfast was good - better than most continental breakfasts.  We would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r157826894-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>157826894</t>
+  </si>
+  <si>
+    <t>04/15/2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r153145808-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
@@ -1218,6 +1856,39 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r139141597-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>139141597</t>
+  </si>
+  <si>
+    <t>09/02/2012</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>The hotel was clean, cool, and bed was excellent. Staff was friendly and check in/check out was easy. I will stay here again. I prefer staying at La Quinta hotels because they are staffed with people that I can communicate with, the beds are excellent, and usually in a good location to my destination.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r138897128-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>138897128</t>
+  </si>
+  <si>
+    <t>08/30/2012</t>
+  </si>
+  <si>
+    <t>Perfect for a no frills night's stay.</t>
+  </si>
+  <si>
+    <t>Stayed here overnight for business.  The hotel is located just off of a major highway.  It appears to be a relatively new LaQuinta, and was well maintained.  Bathroom was clean, and staff was very pleasant and efficient.  My room was missing the remote, and someone quickly went and retrieved one for me.  Didn't have time for breakfast, but they had a nice set up. The hotel is located near several refineries, and there are a few fast food places a couple of blocks away.  Perfect for a no frills night's stay.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r137538886-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -1227,9 +1898,6 @@
     <t>08/18/2012</t>
   </si>
   <si>
-    <t>August 2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r135889723-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -1263,6 +1931,30 @@
     <t>Great stay, nice friendly staff. Great breakfast and an awesome bed. Great service all the way around including breakfast. You can count on the staff to help you with anything. Exercise room, computer room, swimming pool with spa, guest room to have meetings in, and an awesome warm/cool breakfast what more could you ask for, for the price.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r135411863-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>135411863</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>Friendly staff</t>
+  </si>
+  <si>
+    <t>The hotel staff made the staying experience what it was. The young lady that checked me in was very knowledgeable  and extremely polite. On her actions alone I would return to this location. The accommodations were inviting and the room was clean. I wish that I knew the young lady's name, to thank her, but I want to say she made a very hard day alot easier. Thanks.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r134998543-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>134998543</t>
+  </si>
+  <si>
+    <t>07/21/2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r124267721-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -1320,6 +2012,45 @@
     <t>It IS a pretty non-descript area, but nothing bad or scary. And a very short quick drive to the main drags of Pasadena where one find restaurants, etc. The hotel is clearly pretty new, and in very nice shape. Check in was quick and simple. Because the hotel is a good 100 yards or more back from the feeder, even the rooms facing the tollway are quiet. Though the low white noise from the AC unit doesn't hurt.The rooms are large, nicely equipped. A nice mix of pillows to work with, from feather to foam. Breakfast looked good as well. The parking area out front is well lit. I would certainly stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r116939907-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>116939907</t>
+  </si>
+  <si>
+    <t>08/19/2011</t>
+  </si>
+  <si>
+    <t>Above and Beyond!!</t>
+  </si>
+  <si>
+    <t>I called early in the morning for a room &amp; spending one night in the Super GROSS (super 8) across the street. Spoke with Jenn at the front desk who not only gave us a FANTASTIC rate, but told us to come on over that morning. Throughout our entire stay Jenn went above and beyond to help us out and make us comfortable! I was traveling with my kids while my husband is deployed, and she made things so easy on me. Even took the luggage cart to me on the 3rd floor and let me load it before she pushed it all the way back down to my car so I could carry my baby and a dog. The place was clean, nice room, curtains that actually keep the light out and a nice breakfast!  Can't beat it if you need to stay in the Pasadena area!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>I called early in the morning for a room &amp; spending one night in the Super GROSS (super 8) across the street. Spoke with Jenn at the front desk who not only gave us a FANTASTIC rate, but told us to come on over that morning. Throughout our entire stay Jenn went above and beyond to help us out and make us comfortable! I was traveling with my kids while my husband is deployed, and she made things so easy on me. Even took the luggage cart to me on the 3rd floor and let me load it before she pushed it all the way back down to my car so I could carry my baby and a dog. The place was clean, nice room, curtains that actually keep the light out and a nice breakfast!  Can't beat it if you need to stay in the Pasadena area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r116077347-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>116077347</t>
+  </si>
+  <si>
+    <t>07/31/2011</t>
+  </si>
+  <si>
+    <t>Great for business travelers</t>
+  </si>
+  <si>
+    <t>I stayed here a month for business and thought was a really nice hotel with a friendly staff. The bed was comfortable, the TV had a few local HD stations and the business center has a very good computer. On the downside, the fitness center has a broken elliptical and the treadmill catches, the laundry is $1.50 each for wash and dry, the internet is very slow on busy days and while the continental breakfast tasted great for the most part, there was not much variety and the "French Toast" on the weekends was rubbery and was even still slightly cold one morning.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r58880998-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -1384,6 +2115,24 @@
   </si>
   <si>
     <t>February 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d634878-r15332219-La_Quinta_Inn_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>15332219</t>
+  </si>
+  <si>
+    <t>04/24/2008</t>
+  </si>
+  <si>
+    <t>Vehicle vandalized - hotel nice!</t>
+  </si>
+  <si>
+    <t>This is an almost new hotel and very convenient to almost everything we needed.  The room (a king suite) was very, very nice and furnished in a modern style.  The room was wonderful, the staff efficient, but there is no parking security.  Our vehicle was vandalized the first night of our stay, so we cut our trip short by 2 nights.  The breakfast was so-so, but there were few choices.  We, personally, will not go back - there are other hotels in the area where you can park outside your door.  Stay at LQ at your own risk and possibly expense.</t>
+  </si>
+  <si>
+    <t>April 2008</t>
   </si>
 </sst>
 </file>
@@ -1918,7 +2667,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1926,22 +2675,12 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1989,29 +2728,29 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -2035,31 +2774,31 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
         <v>53</v>
@@ -2068,17 +2807,17 @@
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -2127,41 +2866,37 @@
         <v>75</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
         <v>76</v>
       </c>
-      <c r="O5" t="s">
-        <v>53</v>
-      </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>77</v>
-      </c>
-      <c r="X5" t="s">
-        <v>78</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -2177,44 +2912,62 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
         <v>80</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>81</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
         <v>82</v>
       </c>
-      <c r="K6" t="s">
+      <c r="X6" t="s">
         <v>83</v>
       </c>
-      <c r="L6" t="s">
+      <c r="Y6" t="s">
         <v>84</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
-      <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
-      <c r="Y6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -2230,50 +2983,50 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>86</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>87</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>88</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>89</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
         <v>90</v>
       </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>91</v>
       </c>
-      <c r="O7" t="s">
-        <v>53</v>
-      </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -2281,7 +3034,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -2297,7 +3050,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2306,25 +3059,25 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2340,19 +3093,15 @@
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>98</v>
-      </c>
-      <c r="X8" t="s">
-        <v>99</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -2368,37 +3117,37 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
         <v>101</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>102</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>103</v>
       </c>
-      <c r="K9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L9" t="s">
-        <v>105</v>
-      </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>3</v>
@@ -2407,23 +3156,23 @@
         <v>5</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="X9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
@@ -2439,53 +3188,45 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
         <v>110</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>111</v>
       </c>
-      <c r="J10" t="s">
-        <v>112</v>
-      </c>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s"/>
       <c r="M10" t="n">
         <v>3</v>
       </c>
-      <c r="N10" t="s">
-        <v>97</v>
-      </c>
-      <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4</v>
-      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
+      <c r="Y10" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2521,7 +3262,7 @@
         <v>117</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
         <v>118</v>
@@ -2530,13 +3271,13 @@
         <v>53</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -2548,14 +3289,10 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>119</v>
-      </c>
-      <c r="X11" t="s">
-        <v>120</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
@@ -2571,58 +3308,56 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
         <v>122</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>123</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
         <v>124</v>
       </c>
-      <c r="K12" t="s">
-        <v>125</v>
-      </c>
-      <c r="L12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>127</v>
-      </c>
       <c r="O12" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
       </c>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>125</v>
+      </c>
+      <c r="X12" t="s">
+        <v>126</v>
+      </c>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
@@ -2662,13 +3397,13 @@
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="O13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
         <v>5</v>
@@ -2677,7 +3412,7 @@
         <v>5</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
@@ -2686,10 +3421,14 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s">
+        <v>136</v>
+      </c>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
@@ -2705,7 +3444,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2714,22 +3453,22 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s">
         <v>53</v>
@@ -2744,7 +3483,7 @@
         <v>5</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
@@ -2753,10 +3492,14 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>135</v>
+      </c>
+      <c r="X14" t="s">
+        <v>136</v>
+      </c>
       <c r="Y14" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
@@ -2772,7 +3515,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2781,31 +3524,31 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
         <v>5</v>
@@ -2820,10 +3563,14 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>125</v>
+      </c>
+      <c r="X15" t="s">
+        <v>126</v>
+      </c>
       <c r="Y15" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
@@ -2839,7 +3586,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2848,22 +3595,18 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
-      </c>
-      <c r="K16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L16" t="s">
-        <v>149</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="O16" t="s">
         <v>53</v>
@@ -2872,13 +3615,13 @@
         <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
@@ -2889,9 +3632,7 @@
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
-      <c r="Y16" t="s">
-        <v>149</v>
-      </c>
+      <c r="Y16" t="s"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2906,7 +3647,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2915,37 +3656,41 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J17" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O17" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2953,7 +3698,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18">
@@ -2969,7 +3714,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2978,41 +3723,41 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="O18" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -3020,7 +3765,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
@@ -3036,7 +3781,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3045,53 +3790,53 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>164</v>
       </c>
-      <c r="K19" t="s">
-        <v>165</v>
-      </c>
-      <c r="L19" t="s">
-        <v>166</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>167</v>
-      </c>
       <c r="O19" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R19" t="n">
         <v>3</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="X19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Y19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
@@ -3107,7 +3852,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3116,41 +3861,41 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K20" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
       </c>
       <c r="Q20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3158,7 +3903,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21">
@@ -3174,7 +3919,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3183,39 +3928,49 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J21" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" t="s">
+        <v>182</v>
+      </c>
+      <c r="L21" t="s">
+        <v>183</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>178</v>
       </c>
-      <c r="K21" t="s">
-        <v>179</v>
-      </c>
-      <c r="L21" t="s">
-        <v>180</v>
-      </c>
-      <c r="M21" t="n">
-        <v>4</v>
-      </c>
-      <c r="N21" t="s">
-        <v>167</v>
-      </c>
       <c r="O21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22">
@@ -3231,7 +3986,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3240,45 +3995,39 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J22" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K22" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O22" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>3</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
@@ -3294,7 +4043,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3303,37 +4052,33 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J23" t="s">
-        <v>190</v>
-      </c>
-      <c r="K23" t="s">
-        <v>191</v>
-      </c>
-      <c r="L23" t="s">
         <v>192</v>
       </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
         <v>193</v>
       </c>
       <c r="O23" t="s">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
@@ -3344,9 +4089,7 @@
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
-      <c r="Y23" t="s">
-        <v>192</v>
-      </c>
+      <c r="Y23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3361,34 +4104,34 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
         <v>195</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>196</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>197</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>198</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>199</v>
       </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>200</v>
-      </c>
       <c r="O24" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3400,7 +4143,7 @@
         <v>5</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
@@ -3409,14 +4152,10 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>201</v>
-      </c>
-      <c r="X24" t="s">
-        <v>202</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25">
@@ -3432,62 +4171,58 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" t="s">
+        <v>202</v>
+      </c>
+      <c r="K25" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" t="s">
         <v>204</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
-        <v>205</v>
-      </c>
-      <c r="J25" t="s">
-        <v>206</v>
-      </c>
-      <c r="K25" t="s">
-        <v>207</v>
-      </c>
-      <c r="L25" t="s">
-        <v>208</v>
-      </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="O25" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>201</v>
-      </c>
-      <c r="X25" t="s">
-        <v>202</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26">
@@ -3503,7 +4238,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3512,25 +4247,25 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J26" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K26" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L26" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="O26" t="s">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3554,7 +4289,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27">
@@ -3570,7 +4305,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3579,53 +4314,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="J27" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K27" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="O27" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R27" t="n">
         <v>5</v>
       </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>223</v>
-      </c>
-      <c r="X27" t="s">
-        <v>224</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28">
@@ -3641,7 +4372,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3650,25 +4381,25 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="J28" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="K28" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="L28" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="O28" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3679,9 +4410,7 @@
       <c r="R28" t="n">
         <v>5</v>
       </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -3692,7 +4421,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29">
@@ -3708,7 +4437,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3717,43 +4446,45 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="J29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="K29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="L29" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="O29" t="s">
-        <v>133</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>237</v>
-      </c>
-      <c r="X29" t="s">
-        <v>224</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30">
@@ -3769,7 +4500,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3778,45 +4509,49 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="J30" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="K30" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="O30" t="s">
-        <v>106</v>
-      </c>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>237</v>
-      </c>
-      <c r="X30" t="s">
-        <v>224</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31">
@@ -3832,7 +4567,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3841,43 +4576,53 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="J31" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="K31" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="L31" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>237</v>
+      </c>
+      <c r="O31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
         <v>3</v>
       </c>
-      <c r="N31" t="s">
-        <v>244</v>
-      </c>
-      <c r="O31" t="s">
-        <v>133</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>238</v>
+      </c>
+      <c r="X31" t="s">
+        <v>239</v>
+      </c>
       <c r="Y31" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32">
@@ -3893,7 +4638,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3902,49 +4647,53 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="J32" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="K32" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>245</v>
+      </c>
+      <c r="X32" t="s">
+        <v>246</v>
+      </c>
       <c r="Y32" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33">
@@ -3960,7 +4709,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3969,41 +4718,35 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="J33" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K33" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="O33" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q33" t="n">
         <v>2</v>
       </c>
-      <c r="R33" t="n">
-        <v>3</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -4011,7 +4754,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34">
@@ -4027,7 +4770,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4036,39 +4779,49 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="J34" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="K34" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="L34" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="O34" t="s">
-        <v>133</v>
-      </c>
-      <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35">
@@ -4084,7 +4837,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4093,49 +4846,39 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="J35" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="K35" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="L35" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="O35" t="s">
         <v>53</v>
       </c>
-      <c r="P35" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1</v>
-      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>2</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36">
@@ -4151,7 +4894,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4160,37 +4903,33 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="J36" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="K36" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="L36" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="n">
         <v>5</v>
       </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
+      <c r="R36" t="s"/>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
@@ -4202,7 +4941,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37">
@@ -4218,7 +4957,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4227,49 +4966,39 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="J37" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="K37" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="L37" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="O37" t="s">
-        <v>133</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38">
@@ -4285,7 +5014,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4294,39 +5023,49 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="J38" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="K38" t="s">
-        <v>289</v>
+        <v>12</v>
       </c>
       <c r="L38" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="O38" t="s">
-        <v>133</v>
-      </c>
-      <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39">
@@ -4342,7 +5081,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4351,35 +5090,41 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="J39" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="K39" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="L39" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
-      </c>
-      <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
+        <v>287</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
       <c r="R39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S39" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4387,7 +5132,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40">
@@ -4403,7 +5148,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4412,25 +5157,25 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="J40" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="K40" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="L40" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O40" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4451,10 +5196,14 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>294</v>
+      </c>
+      <c r="X40" t="s">
+        <v>295</v>
+      </c>
       <c r="Y40" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41">
@@ -4470,7 +5219,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4479,34 +5228,38 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="J41" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K41" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L41" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="O41" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="P41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q41" t="n">
-        <v>4</v>
-      </c>
-      <c r="R41" t="s"/>
-      <c r="S41" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
         <v>4</v>
@@ -4514,10 +5267,14 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>294</v>
+      </c>
+      <c r="X41" t="s">
+        <v>295</v>
+      </c>
       <c r="Y41" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42">
@@ -4533,47 +5290,43 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
+        <v>304</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>305</v>
+      </c>
+      <c r="J42" t="s">
+        <v>306</v>
+      </c>
+      <c r="K42" t="s">
+        <v>307</v>
+      </c>
+      <c r="L42" t="s">
+        <v>308</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
         <v>309</v>
       </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" t="s">
-        <v>310</v>
-      </c>
-      <c r="J42" t="s">
-        <v>311</v>
-      </c>
-      <c r="K42" t="s">
-        <v>312</v>
-      </c>
-      <c r="L42" t="s">
-        <v>313</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="s">
-        <v>314</v>
-      </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>287</v>
       </c>
       <c r="P42" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
       <c r="R42" t="n">
         <v>5</v>
       </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
         <v>5</v>
@@ -4584,7 +5337,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43">
@@ -4600,7 +5353,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4609,39 +5362,49 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="J43" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="K43" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L43" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="O43" t="s">
-        <v>194</v>
-      </c>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44">
@@ -4657,7 +5420,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4666,31 +5429,31 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="J44" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="K44" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="L44" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>287</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
       </c>
       <c r="Q44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R44" t="n">
         <v>5</v>
@@ -4708,7 +5471,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45">
@@ -4724,7 +5487,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4733,44 +5496,54 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="J45" t="s">
-        <v>330</v>
-      </c>
-      <c r="K45" t="s"/>
-      <c r="L45" t="s"/>
+        <v>322</v>
+      </c>
+      <c r="K45" t="s">
+        <v>323</v>
+      </c>
+      <c r="L45" t="s">
+        <v>324</v>
+      </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="O45" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="P45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R45" t="n">
         <v>5</v>
       </c>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
-      <c r="Y45" t="s"/>
+      <c r="W45" t="s">
+        <v>326</v>
+      </c>
+      <c r="X45" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4785,50 +5558,50 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
+        <v>329</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>330</v>
+      </c>
+      <c r="J46" t="s">
+        <v>331</v>
+      </c>
+      <c r="K46" t="s">
         <v>332</v>
       </c>
-      <c r="G46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" t="s">
-        <v>47</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="L46" t="s">
         <v>333</v>
       </c>
-      <c r="J46" t="s">
-        <v>334</v>
-      </c>
-      <c r="K46" t="s">
-        <v>335</v>
-      </c>
-      <c r="L46" t="s">
-        <v>336</v>
-      </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="O46" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="P46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R46" t="n">
         <v>5</v>
       </c>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4836,7 +5609,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47">
@@ -4852,50 +5625,46 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
+        <v>334</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>335</v>
+      </c>
+      <c r="J47" t="s">
+        <v>336</v>
+      </c>
+      <c r="K47" t="s">
+        <v>337</v>
+      </c>
+      <c r="L47" t="s">
         <v>338</v>
       </c>
-      <c r="G47" t="s">
-        <v>46</v>
-      </c>
-      <c r="H47" t="s">
-        <v>47</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
         <v>339</v>
       </c>
-      <c r="J47" t="s">
-        <v>340</v>
-      </c>
-      <c r="K47" t="s">
-        <v>341</v>
-      </c>
-      <c r="L47" t="s">
-        <v>342</v>
-      </c>
-      <c r="M47" t="n">
-        <v>4</v>
-      </c>
-      <c r="N47" t="s">
-        <v>343</v>
-      </c>
       <c r="O47" t="s">
-        <v>133</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
       <c r="Q47" t="n">
         <v>5</v>
       </c>
       <c r="R47" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -4903,7 +5672,7 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="48">
@@ -4919,47 +5688,43 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
+        <v>340</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>341</v>
+      </c>
+      <c r="J48" t="s">
+        <v>342</v>
+      </c>
+      <c r="K48" t="s">
+        <v>343</v>
+      </c>
+      <c r="L48" t="s">
         <v>344</v>
       </c>
-      <c r="G48" t="s">
-        <v>46</v>
-      </c>
-      <c r="H48" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" t="s">
-        <v>345</v>
-      </c>
-      <c r="J48" t="s">
-        <v>346</v>
-      </c>
-      <c r="K48" t="s">
-        <v>347</v>
-      </c>
-      <c r="L48" t="s">
-        <v>348</v>
-      </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="O48" t="s">
-        <v>133</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P48" t="s"/>
       <c r="Q48" t="n">
         <v>5</v>
       </c>
       <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
         <v>5</v>
@@ -4970,7 +5735,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49">
@@ -4986,58 +5751,52 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
+        <v>345</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>346</v>
+      </c>
+      <c r="J49" t="s">
+        <v>347</v>
+      </c>
+      <c r="K49" t="s">
+        <v>348</v>
+      </c>
+      <c r="L49" t="s">
+        <v>349</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>339</v>
+      </c>
+      <c r="O49" t="s">
+        <v>91</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
         <v>350</v>
       </c>
-      <c r="G49" t="s">
-        <v>46</v>
-      </c>
-      <c r="H49" t="s">
-        <v>47</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="X49" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y49" t="s">
         <v>351</v>
-      </c>
-      <c r="J49" t="s">
-        <v>352</v>
-      </c>
-      <c r="K49" t="s">
-        <v>353</v>
-      </c>
-      <c r="L49" t="s">
-        <v>354</v>
-      </c>
-      <c r="M49" t="n">
-        <v>5</v>
-      </c>
-      <c r="N49" t="s">
-        <v>349</v>
-      </c>
-      <c r="O49" t="s">
-        <v>53</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
-      <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>5</v>
-      </c>
-      <c r="V49" t="n">
-        <v>0</v>
-      </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
-      <c r="Y49" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="50">
@@ -5053,54 +5812,54 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
+        <v>352</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>353</v>
+      </c>
+      <c r="J50" t="s">
+        <v>354</v>
+      </c>
+      <c r="K50" t="s">
         <v>355</v>
       </c>
-      <c r="G50" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" t="s">
-        <v>47</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="L50" t="s">
         <v>356</v>
       </c>
-      <c r="J50" t="s">
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
         <v>357</v>
       </c>
-      <c r="K50" t="s">
-        <v>358</v>
-      </c>
-      <c r="L50" t="s">
-        <v>359</v>
-      </c>
-      <c r="M50" t="n">
-        <v>5</v>
-      </c>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>3</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+      <c r="O50" t="s">
+        <v>134</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>350</v>
+      </c>
+      <c r="X50" t="s">
+        <v>327</v>
+      </c>
       <c r="Y50" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51">
@@ -5116,47 +5875,41 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
+        <v>359</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
         <v>360</v>
       </c>
-      <c r="G51" t="s">
-        <v>46</v>
-      </c>
-      <c r="H51" t="s">
-        <v>47</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>361</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>362</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>363</v>
       </c>
-      <c r="L51" t="s">
-        <v>364</v>
-      </c>
       <c r="M51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
         <v>5</v>
@@ -5183,54 +5936,48 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
+        <v>365</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
         <v>366</v>
       </c>
-      <c r="G52" t="s">
-        <v>46</v>
-      </c>
-      <c r="H52" t="s">
-        <v>47</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>367</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>368</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>369</v>
       </c>
-      <c r="L52" t="s">
-        <v>370</v>
-      </c>
       <c r="M52" t="n">
-        <v>5</v>
-      </c>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
-      <c r="P52" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
-      <c r="R52" t="n">
-        <v>3</v>
-      </c>
-      <c r="S52" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>357</v>
+      </c>
+      <c r="O52" t="s">
+        <v>76</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>5</v>
-      </c>
+      <c r="U52" t="s"/>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="53">
@@ -5246,50 +5993,50 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
+        <v>370</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
         <v>371</v>
       </c>
-      <c r="G53" t="s">
-        <v>46</v>
-      </c>
-      <c r="H53" t="s">
-        <v>47</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>372</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
+        <v>12</v>
+      </c>
+      <c r="L53" t="s">
         <v>373</v>
       </c>
-      <c r="K53" t="s">
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
         <v>374</v>
       </c>
-      <c r="L53" t="s">
-        <v>375</v>
-      </c>
-      <c r="M53" t="n">
-        <v>4</v>
-      </c>
-      <c r="N53" t="s">
-        <v>376</v>
-      </c>
       <c r="O53" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="P53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R53" t="n">
         <v>5</v>
       </c>
       <c r="S53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -5297,7 +6044,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="54">
@@ -5313,27 +6060,31 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
+        <v>375</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>376</v>
+      </c>
+      <c r="J54" t="s">
         <v>377</v>
       </c>
-      <c r="G54" t="s">
-        <v>46</v>
-      </c>
-      <c r="H54" t="s">
-        <v>47</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="K54" t="s">
         <v>378</v>
       </c>
-      <c r="J54" t="s">
+      <c r="L54" t="s">
         <v>379</v>
       </c>
-      <c r="K54" t="s"/>
-      <c r="L54" t="s"/>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="O54" t="s">
         <v>53</v>
@@ -5359,7 +6110,9 @@
       </c>
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
-      <c r="Y54" t="s"/>
+      <c r="Y54" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5374,53 +6127,59 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
+        <v>381</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>382</v>
+      </c>
+      <c r="J55" t="s">
+        <v>383</v>
+      </c>
+      <c r="K55" t="s">
+        <v>384</v>
+      </c>
+      <c r="L55" t="s">
+        <v>385</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
         <v>380</v>
       </c>
-      <c r="G55" t="s">
-        <v>46</v>
-      </c>
-      <c r="H55" t="s">
-        <v>47</v>
-      </c>
-      <c r="I55" t="s">
-        <v>381</v>
-      </c>
-      <c r="J55" t="s">
-        <v>382</v>
-      </c>
-      <c r="K55" t="s"/>
-      <c r="L55" t="s"/>
-      <c r="M55" t="n">
-        <v>5</v>
-      </c>
-      <c r="N55" t="s">
-        <v>383</v>
-      </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="P55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
-      <c r="Y55" t="s"/>
+      <c r="Y55" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5435,7 +6194,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5444,49 +6203,39 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="J56" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K56" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L56" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
-      </c>
-      <c r="P56" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>4</v>
-      </c>
-      <c r="R56" t="n">
-        <v>3</v>
-      </c>
-      <c r="S56" t="n">
-        <v>5</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="n">
-        <v>5</v>
-      </c>
+      <c r="U56" t="s"/>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57">
@@ -5502,7 +6251,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5511,37 +6260,37 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="J57" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K57" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L57" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O57" t="s">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="P57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
@@ -5553,7 +6302,7 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="58">
@@ -5569,7 +6318,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5578,44 +6327,48 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
+        <v>400</v>
+      </c>
+      <c r="J58" t="s">
+        <v>401</v>
+      </c>
+      <c r="K58" t="s">
+        <v>402</v>
+      </c>
+      <c r="L58" t="s">
+        <v>403</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
         <v>397</v>
       </c>
-      <c r="J58" t="s">
-        <v>398</v>
-      </c>
-      <c r="K58" t="s"/>
-      <c r="L58" t="s"/>
-      <c r="M58" t="n">
-        <v>5</v>
-      </c>
-      <c r="N58" t="s">
-        <v>399</v>
-      </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="P58" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q58" t="s"/>
       <c r="R58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
-      <c r="Y58" t="s"/>
+      <c r="Y58" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5630,7 +6383,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5639,44 +6392,50 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="J59" t="s">
-        <v>402</v>
-      </c>
-      <c r="K59" t="s"/>
-      <c r="L59" t="s"/>
+        <v>406</v>
+      </c>
+      <c r="K59" t="s">
+        <v>407</v>
+      </c>
+      <c r="L59" t="s">
+        <v>408</v>
+      </c>
       <c r="M59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="O59" t="s">
         <v>53</v>
       </c>
       <c r="P59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R59" t="n">
         <v>5</v>
       </c>
       <c r="S59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
-      <c r="Y59" t="s"/>
+      <c r="Y59" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5691,7 +6450,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5700,20 +6459,22 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="J60" t="s">
-        <v>406</v>
-      </c>
-      <c r="K60" t="s"/>
+        <v>412</v>
+      </c>
+      <c r="K60" t="s">
+        <v>413</v>
+      </c>
       <c r="L60" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="O60" t="s">
         <v>53</v>
@@ -5740,7 +6501,7 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61">
@@ -5756,7 +6517,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5765,25 +6526,25 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="J61" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K61" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="L61" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="O61" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5807,7 +6568,7 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="62">
@@ -5823,7 +6584,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5832,22 +6593,22 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="J62" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K62" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="L62" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="O62" t="s">
         <v>53</v>
@@ -5856,7 +6617,7 @@
         <v>1</v>
       </c>
       <c r="Q62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R62" t="n">
         <v>3</v>
@@ -5871,10 +6632,14 @@
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
+      <c r="W62" t="s">
+        <v>350</v>
+      </c>
+      <c r="X62" t="s">
+        <v>327</v>
+      </c>
       <c r="Y62" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="63">
@@ -5890,7 +6655,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -5899,41 +6664,41 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="J63" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="K63" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="L63" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="M63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N63" t="s">
         <v>426</v>
       </c>
       <c r="O63" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="P63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q63" t="n">
         <v>3</v>
       </c>
       <c r="R63" t="n">
+        <v>2</v>
+      </c>
+      <c r="S63" t="n">
         <v>3</v>
-      </c>
-      <c r="S63" t="n">
-        <v>5</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -5941,7 +6706,7 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="64">
@@ -5957,7 +6722,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -5966,16 +6731,16 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="J64" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="K64" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L64" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
@@ -5984,31 +6749,21 @@
         <v>426</v>
       </c>
       <c r="O64" t="s">
-        <v>194</v>
-      </c>
-      <c r="P64" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>5</v>
-      </c>
-      <c r="R64" t="n">
-        <v>5</v>
-      </c>
-      <c r="S64" t="n">
-        <v>5</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
-      <c r="U64" t="n">
-        <v>5</v>
-      </c>
+      <c r="U64" t="s"/>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="65">
@@ -6024,7 +6779,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6033,38 +6788,32 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="J65" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K65" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L65" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="O65" t="s">
-        <v>133</v>
-      </c>
-      <c r="P65" t="n">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="n">
         <v>3</v>
       </c>
-      <c r="Q65" t="n">
-        <v>4</v>
-      </c>
-      <c r="R65" t="n">
-        <v>4</v>
-      </c>
-      <c r="S65" t="n">
-        <v>4</v>
-      </c>
+      <c r="S65" t="s"/>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
         <v>3</v>
@@ -6075,7 +6824,7 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66">
@@ -6091,7 +6840,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6100,53 +6849,49 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="J66" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="K66" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="L66" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="M66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="P66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s">
-        <v>447</v>
-      </c>
-      <c r="X66" t="s">
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
         <v>448</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="67">
@@ -6162,43 +6907,43 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
+        <v>449</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
         <v>450</v>
       </c>
-      <c r="G67" t="s">
-        <v>46</v>
-      </c>
-      <c r="H67" t="s">
-        <v>47</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>451</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>452</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>453</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
         <v>454</v>
       </c>
-      <c r="M67" t="n">
-        <v>4</v>
-      </c>
-      <c r="N67" t="s">
-        <v>455</v>
-      </c>
       <c r="O67" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="P67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q67" t="n">
         <v>5</v>
       </c>
       <c r="R67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S67" t="n">
         <v>5</v>
@@ -6213,7 +6958,2936 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>454</v>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>455</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>456</v>
+      </c>
+      <c r="J68" t="s">
+        <v>457</v>
+      </c>
+      <c r="K68" t="s">
+        <v>458</v>
+      </c>
+      <c r="L68" t="s">
+        <v>459</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>460</v>
+      </c>
+      <c r="O68" t="s">
+        <v>91</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>461</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>462</v>
+      </c>
+      <c r="J69" t="s">
+        <v>463</v>
+      </c>
+      <c r="K69" t="s">
+        <v>464</v>
+      </c>
+      <c r="L69" t="s">
+        <v>465</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>460</v>
+      </c>
+      <c r="O69" t="s">
+        <v>76</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>466</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>467</v>
+      </c>
+      <c r="J70" t="s">
+        <v>468</v>
+      </c>
+      <c r="K70" t="s">
+        <v>469</v>
+      </c>
+      <c r="L70" t="s">
+        <v>470</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>471</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>473</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>474</v>
+      </c>
+      <c r="J71" t="s">
+        <v>475</v>
+      </c>
+      <c r="K71" t="s">
+        <v>476</v>
+      </c>
+      <c r="L71" t="s">
+        <v>477</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>478</v>
+      </c>
+      <c r="O71" t="s">
+        <v>287</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>479</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>480</v>
+      </c>
+      <c r="J72" t="s">
+        <v>481</v>
+      </c>
+      <c r="K72" t="s">
+        <v>482</v>
+      </c>
+      <c r="L72" t="s">
+        <v>483</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>484</v>
+      </c>
+      <c r="O72" t="s">
+        <v>91</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>485</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>486</v>
+      </c>
+      <c r="J73" t="s">
+        <v>487</v>
+      </c>
+      <c r="K73" t="s">
+        <v>488</v>
+      </c>
+      <c r="L73" t="s">
+        <v>489</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>484</v>
+      </c>
+      <c r="O73" t="s">
+        <v>134</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>491</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>492</v>
+      </c>
+      <c r="J74" t="s">
+        <v>493</v>
+      </c>
+      <c r="K74" t="s">
+        <v>494</v>
+      </c>
+      <c r="L74" t="s">
+        <v>495</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>484</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>496</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>497</v>
+      </c>
+      <c r="J75" t="s">
+        <v>498</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s"/>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>499</v>
+      </c>
+      <c r="O75" t="s">
+        <v>91</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>500</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>501</v>
+      </c>
+      <c r="J76" t="s">
+        <v>502</v>
+      </c>
+      <c r="K76" t="s">
+        <v>503</v>
+      </c>
+      <c r="L76" t="s">
+        <v>504</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>505</v>
+      </c>
+      <c r="O76" t="s">
+        <v>76</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>506</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>507</v>
+      </c>
+      <c r="J77" t="s">
+        <v>508</v>
+      </c>
+      <c r="K77" t="s">
+        <v>509</v>
+      </c>
+      <c r="L77" t="s">
+        <v>510</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>511</v>
+      </c>
+      <c r="O77" t="s">
+        <v>91</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>512</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>513</v>
+      </c>
+      <c r="J78" t="s">
+        <v>514</v>
+      </c>
+      <c r="K78" t="s">
+        <v>515</v>
+      </c>
+      <c r="L78" t="s">
+        <v>516</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>517</v>
+      </c>
+      <c r="O78" t="s">
+        <v>91</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>518</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>519</v>
+      </c>
+      <c r="J79" t="s">
+        <v>520</v>
+      </c>
+      <c r="K79" t="s">
+        <v>521</v>
+      </c>
+      <c r="L79" t="s">
+        <v>522</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>523</v>
+      </c>
+      <c r="O79" t="s">
+        <v>91</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>524</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>525</v>
+      </c>
+      <c r="J80" t="s">
+        <v>526</v>
+      </c>
+      <c r="K80" t="s">
+        <v>527</v>
+      </c>
+      <c r="L80" t="s">
+        <v>528</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>529</v>
+      </c>
+      <c r="O80" t="s">
+        <v>91</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>530</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>531</v>
+      </c>
+      <c r="J81" t="s">
+        <v>532</v>
+      </c>
+      <c r="K81" t="s">
+        <v>533</v>
+      </c>
+      <c r="L81" t="s">
+        <v>534</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>529</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>535</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>536</v>
+      </c>
+      <c r="J82" t="s">
+        <v>537</v>
+      </c>
+      <c r="K82" t="s">
+        <v>538</v>
+      </c>
+      <c r="L82" t="s">
+        <v>539</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>529</v>
+      </c>
+      <c r="O82" t="s">
+        <v>134</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>541</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>542</v>
+      </c>
+      <c r="J83" t="s">
+        <v>543</v>
+      </c>
+      <c r="K83" t="s">
+        <v>544</v>
+      </c>
+      <c r="L83" t="s">
+        <v>545</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>529</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>546</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>547</v>
+      </c>
+      <c r="J84" t="s">
+        <v>548</v>
+      </c>
+      <c r="K84" t="s">
+        <v>549</v>
+      </c>
+      <c r="L84" t="s">
+        <v>550</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>551</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>552</v>
+      </c>
+      <c r="J85" t="s">
+        <v>553</v>
+      </c>
+      <c r="K85" t="s">
+        <v>554</v>
+      </c>
+      <c r="L85" t="s">
+        <v>555</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>556</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>557</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>558</v>
+      </c>
+      <c r="J86" t="s">
+        <v>559</v>
+      </c>
+      <c r="K86" t="s">
+        <v>560</v>
+      </c>
+      <c r="L86" t="s">
+        <v>561</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>562</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>563</v>
+      </c>
+      <c r="J87" t="s">
+        <v>564</v>
+      </c>
+      <c r="K87" t="s">
+        <v>565</v>
+      </c>
+      <c r="L87" t="s">
+        <v>566</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>556</v>
+      </c>
+      <c r="O87" t="s">
+        <v>287</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>568</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>569</v>
+      </c>
+      <c r="J88" t="s">
+        <v>570</v>
+      </c>
+      <c r="K88" t="s">
+        <v>571</v>
+      </c>
+      <c r="L88" t="s">
+        <v>572</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>556</v>
+      </c>
+      <c r="O88" t="s">
+        <v>91</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>574</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>575</v>
+      </c>
+      <c r="J89" t="s">
+        <v>576</v>
+      </c>
+      <c r="K89" t="s">
+        <v>577</v>
+      </c>
+      <c r="L89" t="s">
+        <v>578</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>579</v>
+      </c>
+      <c r="O89" t="s">
+        <v>76</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>580</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>581</v>
+      </c>
+      <c r="J90" t="s">
+        <v>582</v>
+      </c>
+      <c r="K90" t="s"/>
+      <c r="L90" t="s"/>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>579</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>583</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>584</v>
+      </c>
+      <c r="J91" t="s">
+        <v>585</v>
+      </c>
+      <c r="K91" t="s">
+        <v>586</v>
+      </c>
+      <c r="L91" t="s">
+        <v>587</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>517</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>588</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>589</v>
+      </c>
+      <c r="J92" t="s">
+        <v>590</v>
+      </c>
+      <c r="K92" t="s">
+        <v>591</v>
+      </c>
+      <c r="L92" t="s">
+        <v>592</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>517</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>593</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>594</v>
+      </c>
+      <c r="J93" t="s">
+        <v>595</v>
+      </c>
+      <c r="K93" t="s"/>
+      <c r="L93" t="s"/>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>517</v>
+      </c>
+      <c r="O93" t="s">
+        <v>91</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>596</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>597</v>
+      </c>
+      <c r="J94" t="s">
+        <v>598</v>
+      </c>
+      <c r="K94" t="s">
+        <v>599</v>
+      </c>
+      <c r="L94" t="s">
+        <v>600</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>601</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>602</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>603</v>
+      </c>
+      <c r="J95" t="s">
+        <v>604</v>
+      </c>
+      <c r="K95" t="s">
+        <v>605</v>
+      </c>
+      <c r="L95" t="s">
+        <v>606</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>607</v>
+      </c>
+      <c r="O95" t="s">
+        <v>287</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>608</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>609</v>
+      </c>
+      <c r="J96" t="s">
+        <v>610</v>
+      </c>
+      <c r="K96" t="s"/>
+      <c r="L96" t="s"/>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>611</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>612</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>613</v>
+      </c>
+      <c r="J97" t="s">
+        <v>614</v>
+      </c>
+      <c r="K97" t="s">
+        <v>615</v>
+      </c>
+      <c r="L97" t="s">
+        <v>616</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>617</v>
+      </c>
+      <c r="O97" t="s">
+        <v>76</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>618</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>619</v>
+      </c>
+      <c r="J98" t="s">
+        <v>620</v>
+      </c>
+      <c r="K98" t="s">
+        <v>621</v>
+      </c>
+      <c r="L98" t="s">
+        <v>622</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>617</v>
+      </c>
+      <c r="O98" t="s">
+        <v>91</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>623</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>624</v>
+      </c>
+      <c r="J99" t="s">
+        <v>625</v>
+      </c>
+      <c r="K99" t="s"/>
+      <c r="L99" t="s"/>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>617</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>626</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>627</v>
+      </c>
+      <c r="J100" t="s">
+        <v>628</v>
+      </c>
+      <c r="K100" t="s"/>
+      <c r="L100" t="s">
+        <v>629</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>630</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>632</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>633</v>
+      </c>
+      <c r="J101" t="s">
+        <v>634</v>
+      </c>
+      <c r="K101" t="s">
+        <v>635</v>
+      </c>
+      <c r="L101" t="s">
+        <v>636</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>630</v>
+      </c>
+      <c r="O101" t="s">
+        <v>287</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>637</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>638</v>
+      </c>
+      <c r="J102" t="s">
+        <v>639</v>
+      </c>
+      <c r="K102" t="s">
+        <v>640</v>
+      </c>
+      <c r="L102" t="s">
+        <v>641</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>630</v>
+      </c>
+      <c r="O102" t="s">
+        <v>91</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>642</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>643</v>
+      </c>
+      <c r="J103" t="s">
+        <v>644</v>
+      </c>
+      <c r="K103" t="s"/>
+      <c r="L103" t="s"/>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>630</v>
+      </c>
+      <c r="O103" t="s">
+        <v>76</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>645</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>646</v>
+      </c>
+      <c r="J104" t="s">
+        <v>647</v>
+      </c>
+      <c r="K104" t="s">
+        <v>648</v>
+      </c>
+      <c r="L104" t="s">
+        <v>649</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="s">
+        <v>650</v>
+      </c>
+      <c r="O104" t="s">
+        <v>53</v>
+      </c>
+      <c r="P104" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>2</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>1</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>1</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>651</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>652</v>
+      </c>
+      <c r="J105" t="s">
+        <v>653</v>
+      </c>
+      <c r="K105" t="s">
+        <v>654</v>
+      </c>
+      <c r="L105" t="s">
+        <v>655</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3</v>
+      </c>
+      <c r="N105" t="s">
+        <v>656</v>
+      </c>
+      <c r="O105" t="s">
+        <v>287</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>3</v>
+      </c>
+      <c r="R105" t="n">
+        <v>3</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>658</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>659</v>
+      </c>
+      <c r="J106" t="s">
+        <v>660</v>
+      </c>
+      <c r="K106" t="s">
+        <v>661</v>
+      </c>
+      <c r="L106" t="s">
+        <v>662</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>656</v>
+      </c>
+      <c r="O106" t="s">
+        <v>287</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>664</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>665</v>
+      </c>
+      <c r="J107" t="s">
+        <v>666</v>
+      </c>
+      <c r="K107" t="s">
+        <v>667</v>
+      </c>
+      <c r="L107" t="s">
+        <v>668</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>669</v>
+      </c>
+      <c r="O107" t="s">
+        <v>53</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="s"/>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>671</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>672</v>
+      </c>
+      <c r="J108" t="s">
+        <v>673</v>
+      </c>
+      <c r="K108" t="s">
+        <v>674</v>
+      </c>
+      <c r="L108" t="s">
+        <v>675</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>676</v>
+      </c>
+      <c r="O108" t="s">
+        <v>91</v>
+      </c>
+      <c r="P108" t="s"/>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="s"/>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>677</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>678</v>
+      </c>
+      <c r="J109" t="s">
+        <v>679</v>
+      </c>
+      <c r="K109" t="s">
+        <v>680</v>
+      </c>
+      <c r="L109" t="s">
+        <v>681</v>
+      </c>
+      <c r="M109" t="n">
+        <v>3</v>
+      </c>
+      <c r="N109" t="s">
+        <v>682</v>
+      </c>
+      <c r="O109" t="s">
+        <v>91</v>
+      </c>
+      <c r="P109" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>4</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>3</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>684</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>685</v>
+      </c>
+      <c r="J110" t="s">
+        <v>686</v>
+      </c>
+      <c r="K110" t="s">
+        <v>687</v>
+      </c>
+      <c r="L110" t="s">
+        <v>688</v>
+      </c>
+      <c r="M110" t="n">
+        <v>3</v>
+      </c>
+      <c r="N110" t="s">
+        <v>689</v>
+      </c>
+      <c r="O110" t="s">
+        <v>53</v>
+      </c>
+      <c r="P110" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>4</v>
+      </c>
+      <c r="R110" t="n">
+        <v>4</v>
+      </c>
+      <c r="S110" t="n">
+        <v>4</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>2</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>690</v>
+      </c>
+      <c r="X110" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>693</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>694</v>
+      </c>
+      <c r="J111" t="s">
+        <v>695</v>
+      </c>
+      <c r="K111" t="s">
+        <v>696</v>
+      </c>
+      <c r="L111" t="s">
+        <v>697</v>
+      </c>
+      <c r="M111" t="n">
+        <v>4</v>
+      </c>
+      <c r="N111" t="s">
+        <v>698</v>
+      </c>
+      <c r="O111" t="s">
+        <v>91</v>
+      </c>
+      <c r="P111" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>5</v>
+      </c>
+      <c r="R111" t="n">
+        <v>3</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>54981</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>699</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>700</v>
+      </c>
+      <c r="J112" t="s">
+        <v>701</v>
+      </c>
+      <c r="K112" t="s">
+        <v>702</v>
+      </c>
+      <c r="L112" t="s">
+        <v>703</v>
+      </c>
+      <c r="M112" t="n">
+        <v>4</v>
+      </c>
+      <c r="N112" t="s">
+        <v>704</v>
+      </c>
+      <c r="O112" t="s">
+        <v>134</v>
+      </c>
+      <c r="P112" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>5</v>
+      </c>
+      <c r="R112" t="n">
+        <v>5</v>
+      </c>
+      <c r="S112" t="n">
+        <v>4</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>4</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>703</v>
       </c>
     </row>
   </sheetData>
